--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\Selenium-Test-Template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D55837-A81B-4133-87C4-CD113BE19C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FDDC73-5448-4A8D-8190-785A3E794942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,12 +34,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>https://www.nivontec.de/</t>
-  </si>
-  <si>
-    <t>https://www.amjis.com/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>autoankauf-saarlouis.de</t>
+  </si>
+  <si>
+    <t>autoankauf-hanau.de</t>
+  </si>
+  <si>
+    <t>autoankauf-celle.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-kiel.de</t>
+  </si>
+  <si>
+    <t>cuxhaven-autoankauf.de</t>
+  </si>
+  <si>
+    <t>elmshorn-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-wismar.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-warendorf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-flensburg.de</t>
+  </si>
+  <si>
+    <t>xn--auto-ankauf-osnabrck-6ec.de</t>
+  </si>
+  <si>
+    <t>velbert-autoankauf.de</t>
+  </si>
+  <si>
+    <t>recklinghausen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-rendsburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-kaiserslautern.de</t>
+  </si>
+  <si>
+    <t>hamburg-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>mainz-auto.de</t>
+  </si>
+  <si>
+    <t>autoankauf-norderstedt.de</t>
+  </si>
+  <si>
+    <t>bad-segeberg-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-ahrensburg.de</t>
+  </si>
+  <si>
+    <t>xn--auto-ankauf-mnster-y6b.de</t>
+  </si>
+  <si>
+    <t>autowuppertal.de</t>
+  </si>
+  <si>
+    <t>autoankauf-langenhagen.de</t>
+  </si>
+  <si>
+    <t>xn--auto-ankauf-gtersloh-1ec.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-giessen.de</t>
+  </si>
+  <si>
+    <t>xn--neumnster-auto-ankauf-cic.de</t>
+  </si>
+  <si>
+    <t>bremen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>wedel-autoankauf.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-hamm.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-fulda.de</t>
+  </si>
+  <si>
+    <t>xn--auto-ankauf-gttingen-gbc.de</t>
+  </si>
+  <si>
+    <t>chemnitz-autoankauf.de</t>
+  </si>
+  <si>
+    <t>xn--auto-lneburg-ilb.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-euskirchen.de</t>
+  </si>
+  <si>
+    <t>rostock-autoankauf.de</t>
+  </si>
+  <si>
+    <t>ingolstadt-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>xn--kln-auto-ankauf-8sb.de</t>
+  </si>
+  <si>
+    <t>xn--hxter-autoankauf-mwb.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-ulm.de</t>
+  </si>
+  <si>
+    <t>hildesheim-autoankauf.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-augsburg.de</t>
+  </si>
+  <si>
+    <t>xn--auto-ankauf-lbeck-f3b.de</t>
+  </si>
+  <si>
+    <t>gummersbach-autoankauf.de</t>
+  </si>
+  <si>
+    <t>viersen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>siegen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>xn--auto-ankauf-saarbrcken-9lc.de</t>
+  </si>
+  <si>
+    <t>stade-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-diepholz.de</t>
+  </si>
+  <si>
+    <t>geesthacht-autoankauf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-dinslaken.de</t>
+  </si>
+  <si>
+    <t>frankfurt-auto.de</t>
+  </si>
+  <si>
+    <t>xn--kfz-ankauf-dsseldorf-0ec.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-hamburg.de</t>
+  </si>
+  <si>
+    <t>berlin-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>testnofounddomain.com</t>
   </si>
 </sst>
 </file>
@@ -55,9 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,17 +234,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,38 +564,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="84.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>"https://www." &amp; B1</f>
+        <v>https://www.autoankauf-saarlouis.de</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A54" si="0">"https://www." &amp; B2</f>
+        <v>https://www.autoankauf-hanau.de</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-celle.de</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-kiel.de</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.cuxhaven-autoankauf.de</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.elmshorn-autoankauf.de</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-wismar.de</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-warendorf.de</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-flensburg.de</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.velbert-autoankauf.de</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-rendsburg.de</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-kaiserslautern.de</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.hamburg-auto-ankauf.de</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.mainz-auto.de</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-norderstedt.de</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.bad-segeberg-autoankauf.de</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-ahrensburg.de</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autowuppertal.de</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-langenhagen.de</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-giessen.de</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.bremen-auto-ankauf.de</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wedel-autoankauf.de</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.kfz-ankauf-hamm.de</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-fulda.de</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.chemnitz-autoankauf.de</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.rostock-autoankauf.de</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.kfz-ankauf-ulm.de</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.hildesheim-autoankauf.de</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.gummersbach-autoankauf.de</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.viersen-auto-ankauf.de</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.siegen-autoankauf.de</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.stade-autoankauf.de</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-diepholz.de</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.geesthacht-autoankauf.de</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.frankfurt-auto.de</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.berlin-auto-ankauf.de</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.testnofounddomain.com</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{CBC52BE2-73C8-4D29-8874-32F8D8E19508}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{7C4291DB-075D-40E3-842E-7B2DF9D8293D}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{4E656F5D-0D72-4C42-9D62-B8E001F26A28}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\Selenium-Test-Template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FDDC73-5448-4A8D-8190-785A3E794942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EEB605-C6C7-4973-846E-A2D45B98EB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>berlin-auto-ankauf.de</t>
-  </si>
-  <si>
-    <t>testnofounddomain.com</t>
   </si>
 </sst>
 </file>
@@ -564,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,8 +584,8 @@
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A54" si="0">"https://www." &amp; B2</f>
-        <v>https://www.autoankauf-hanau.de</v>
+        <f t="shared" ref="A2:A53" si="0">"http://www." &amp; B2</f>
+        <v>http://www.autoankauf-hanau.de</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -597,7 +594,7 @@
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-celle.de</v>
+        <v>http://www.autoankauf-celle.de</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -606,7 +603,7 @@
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-kiel.de</v>
+        <v>http://www.auto-ankauf-kiel.de</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -615,7 +612,7 @@
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.cuxhaven-autoankauf.de</v>
+        <v>http://www.cuxhaven-autoankauf.de</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -624,7 +621,7 @@
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.elmshorn-autoankauf.de</v>
+        <v>http://www.elmshorn-autoankauf.de</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -633,7 +630,7 @@
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-wismar.de</v>
+        <v>http://www.autoankauf-wismar.de</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -642,7 +639,7 @@
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-warendorf.de</v>
+        <v>http://www.auto-ankauf-warendorf.de</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -651,7 +648,7 @@
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-flensburg.de</v>
+        <v>http://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -660,7 +657,7 @@
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <v>http://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -668,8 +665,8 @@
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.velbert-autoankauf.de</v>
+        <f>"http://www." &amp; B11</f>
+        <v>http://www.velbert-autoankauf.de</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -678,7 +675,7 @@
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.recklinghausen-auto-ankauf.de</v>
+        <v>http://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -687,7 +684,7 @@
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-rendsburg.de</v>
+        <v>http://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -696,7 +693,7 @@
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-kaiserslautern.de</v>
+        <v>http://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -705,7 +702,7 @@
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.hamburg-auto-ankauf.de</v>
+        <v>http://www.hamburg-auto-ankauf.de</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -714,7 +711,7 @@
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.mainz-auto.de</v>
+        <v>http://www.mainz-auto.de</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -723,7 +720,7 @@
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-norderstedt.de</v>
+        <v>http://www.autoankauf-norderstedt.de</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -732,7 +729,7 @@
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bad-segeberg-autoankauf.de</v>
+        <v>http://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -741,7 +738,7 @@
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-ahrensburg.de</v>
+        <v>http://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -750,7 +747,7 @@
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+        <v>http://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -759,7 +756,7 @@
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autowuppertal.de</v>
+        <v>http://www.autowuppertal.de</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -768,7 +765,7 @@
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-langenhagen.de</v>
+        <v>http://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -777,7 +774,7 @@
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+        <v>http://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -786,7 +783,7 @@
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-giessen.de</v>
+        <v>http://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -795,7 +792,7 @@
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+        <v>http://www.xn--neumnster-auto-ankauf-cic.de</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -804,7 +801,7 @@
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bremen-auto-ankauf.de</v>
+        <v>http://www.bremen-auto-ankauf.de</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -813,7 +810,7 @@
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.wedel-autoankauf.de</v>
+        <v>http://www.wedel-autoankauf.de</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -822,7 +819,7 @@
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
+        <v>http://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -831,7 +828,7 @@
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <v>http://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -840,7 +837,7 @@
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>http://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -849,7 +846,7 @@
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>http://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -858,7 +855,7 @@
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>http://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -867,7 +864,7 @@
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <v>http://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -876,7 +873,7 @@
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <v>http://www.rostock-autoankauf.de</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -885,7 +882,7 @@
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <v>http://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -894,7 +891,7 @@
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>http://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -903,7 +900,7 @@
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>http://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -912,7 +909,7 @@
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <v>http://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -921,7 +918,7 @@
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <v>http://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -930,7 +927,7 @@
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <v>http://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -939,7 +936,7 @@
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <v>http://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -948,7 +945,7 @@
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <v>http://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -957,7 +954,7 @@
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <v>http://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -966,7 +963,7 @@
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <v>http://www.siegen-autoankauf.de</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -975,7 +972,7 @@
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>http://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
@@ -984,7 +981,7 @@
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.stade-autoankauf.de</v>
+        <v>http://www.stade-autoankauf.de</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -993,7 +990,7 @@
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>http://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -1002,7 +999,7 @@
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.geesthacht-autoankauf.de</v>
+        <v>http://www.geesthacht-autoankauf.de</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -1011,7 +1008,7 @@
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>http://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -1020,7 +1017,7 @@
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>http://www.frankfurt-auto.de</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -1029,7 +1026,7 @@
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>http://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -1038,7 +1035,7 @@
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>http://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -1047,19 +1044,10 @@
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <v>http://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.testnofounddomain.com</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\Selenium-Test-Template\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Intern\Projekt Autoankauf\Testing\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EEB605-C6C7-4973-846E-A2D45B98EB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522ECBD1-1178-4113-AF76-1AC51FD441E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -193,6 +184,579 @@
   </si>
   <si>
     <t>berlin-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-butzbach.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bretten.de</t>
+  </si>
+  <si>
+    <t>xn--autoankauf-ldenscheid-kic.de</t>
+  </si>
+  <si>
+    <t>autoankauf-aurich.de</t>
+  </si>
+  <si>
+    <t>autoankauf-cloppenburg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-aschaffenburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-baden-baden.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-coesfeld.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-hersfeld.de</t>
+  </si>
+  <si>
+    <t>braunschweig-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>freiberg-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-fulda.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-eisenach.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-darmstadt.de</t>
+  </si>
+  <si>
+    <t>dormagen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-geldern.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-dachau.de</t>
+  </si>
+  <si>
+    <t>erkrath-autoankauf.de</t>
+  </si>
+  <si>
+    <t>erfurt-autoankauf.de</t>
+  </si>
+  <si>
+    <t>göppingen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-steinborn.de</t>
+  </si>
+  <si>
+    <t>autoankauf-meisburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-birresborn.de</t>
+  </si>
+  <si>
+    <t>autoankauf-odelzhausen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-cochem.de</t>
+  </si>
+  <si>
+    <t>autoankauf-burghaun.de</t>
+  </si>
+  <si>
+    <t>autoankauf-siegsdorf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-pfarrkirchen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-hildburghausen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-weilburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-finthen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-schwalmstadt.de</t>
+  </si>
+  <si>
+    <t>autoankauf-warburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-sangerhausen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-stendal.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-salzungen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-steinburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-ratzeburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-mainburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-wildungen.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-ravensburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-preetz.de</t>
+  </si>
+  <si>
+    <t>autoankauf-wittlich.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-steinfurt.de</t>
+  </si>
+  <si>
+    <t>autoankauf-wittmund.de</t>
+  </si>
+  <si>
+    <t>autoankauf-hungen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-karlsbad.de</t>
+  </si>
+  <si>
+    <t>autoankauf-brilon.de</t>
+  </si>
+  <si>
+    <t>autoankauf-homberg.de</t>
+  </si>
+  <si>
+    <t>herrenberg-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-pfaffenhofen.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-miltenberg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-passau.de</t>
+  </si>
+  <si>
+    <t>autoankauf-fritzlar.de</t>
+  </si>
+  <si>
+    <t>autoankauf-uelzen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-kissingen.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-meppen.de</t>
+  </si>
+  <si>
+    <t>unna-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-schwabach.de</t>
+  </si>
+  <si>
+    <t>autoankauf-emsland.de</t>
+  </si>
+  <si>
+    <t>kleve-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-dietzenbach.de</t>
+  </si>
+  <si>
+    <t>autoankauf-wernigerode.de</t>
+  </si>
+  <si>
+    <t>autoankauf-peine.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-mainz.de</t>
+  </si>
+  <si>
+    <t>autoankauf-merzig.de</t>
+  </si>
+  <si>
+    <t>mayen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>oldenburg-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-trier.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-daun.de</t>
+  </si>
+  <si>
+    <t>autoankauf-osterholz-scharmbeck.de</t>
+  </si>
+  <si>
+    <t>autoankauf-schwerin.de</t>
+  </si>
+  <si>
+    <t>autoankauf-helmstedt.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-marburg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-forchheim.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-ahaus.de</t>
+  </si>
+  <si>
+    <t>autoankauf-griesheim.de</t>
+  </si>
+  <si>
+    <t>autoankauf-sinsheim.de</t>
+  </si>
+  <si>
+    <t>autoankauf-northeim.de</t>
+  </si>
+  <si>
+    <t>autoankauf-altenburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-murnau.de</t>
+  </si>
+  <si>
+    <t>salzgitter-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bautzen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-konstanz.de</t>
+  </si>
+  <si>
+    <t>autoankauf-mosbach.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-eppingen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-duderstadt.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-segeberg.de</t>
+  </si>
+  <si>
+    <t>autohilden.de</t>
+  </si>
+  <si>
+    <t>autoankauf-gerolstein.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-butzbach.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-pinneberg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-offenburg.de</t>
+  </si>
+  <si>
+    <t>autohaan.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-landshut.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-oldesloe.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-bielefeld.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-kiel.de</t>
+  </si>
+  <si>
+    <t>autoankauf-gifhorn.de</t>
+  </si>
+  <si>
+    <t>autoankauf-pforzheim.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-altenkirchen.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-neuwied.de</t>
+  </si>
+  <si>
+    <t>autoankauf-bad-nauheim.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-memmingen.de</t>
+  </si>
+  <si>
+    <t>wolfsburg-autoankauf.de</t>
+  </si>
+  <si>
+    <t>wermelskirchen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-traunstein.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-neubrandenburg.de</t>
+  </si>
+  <si>
+    <t>autoankauf-speyer.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-witten.de</t>
+  </si>
+  <si>
+    <t>leipzig-autoankauf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-siegburg.de</t>
+  </si>
+  <si>
+    <t>xn--autoankauf-tbingen-x6b.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-regensburg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-deggendorf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-straubing.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-konstanz.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-ludwigsburg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-rheine.de</t>
+  </si>
+  <si>
+    <t>autoankauf-itzehoe.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-aalen.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-kempen.de</t>
+  </si>
+  <si>
+    <t>autoankauf-halle-saale.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-nettetal.de</t>
+  </si>
+  <si>
+    <t>castrop-rauxel-autoankauf.de</t>
+  </si>
+  <si>
+    <t>xn--saarbrcken-gebrauchtwagenankauf-tid.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-lippstadt.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-heinsberg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-soest.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-amberg.de</t>
+  </si>
+  <si>
+    <t>halle-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-dillenburg.de</t>
+  </si>
+  <si>
+    <t>schweinfurt-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-bielefeld.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-bamberg.de</t>
+  </si>
+  <si>
+    <t>freiburg-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-zwickau.de</t>
+  </si>
+  <si>
+    <t>autoankauf-schleswig.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-minden.de</t>
+  </si>
+  <si>
+    <t>solingen-auto.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-magdeburg.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-heilbronn.de</t>
+  </si>
+  <si>
+    <t>xn--kfz-ankauf-wrzburg-x6b.de</t>
+  </si>
+  <si>
+    <t>frankfurt-am-main-autoankauf.de</t>
+  </si>
+  <si>
+    <t>xn--kfz-ankauf-mnster-e3b.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-krefeld24.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-hannover.de</t>
+  </si>
+  <si>
+    <t>autoratingen.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-karlsruhe.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-wesel.de</t>
+  </si>
+  <si>
+    <t>xn--kfz-ankauf-nrnberg-x6b.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-dresden.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-mainz.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-herne.de</t>
+  </si>
+  <si>
+    <t>autoleverkusen.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-bochum.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-ulm.de</t>
+  </si>
+  <si>
+    <t>xn--mnchen-auto-ankauf-m6b.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-gelsenkirchen24.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-kassel.de</t>
+  </si>
+  <si>
+    <t>wiesbaden-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>xn--mnster-auto-ankauf-m6b.de</t>
+  </si>
+  <si>
+    <t>autobonn.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-paderborn.de</t>
+  </si>
+  <si>
+    <t>stuttgart-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>kfz-ankauf-reutlingen.de</t>
+  </si>
+  <si>
+    <t>xn--autoankauf-gppingen-16b.de</t>
+  </si>
+  <si>
+    <t>gebrauchtwagen-ankauf-stuttgart.de</t>
+  </si>
+  <si>
+    <t>autoduisburg.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-herford.de</t>
+  </si>
+  <si>
+    <t>dortmund-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>montabaur-autoankauf.de</t>
+  </si>
+  <si>
+    <t>maintal-autoankauf.de</t>
+  </si>
+  <si>
+    <t>nordhausen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>gotha-autoankauf.de</t>
+  </si>
+  <si>
+    <t>goslar-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>xn--dsseldorf-auto-gsb.de</t>
+  </si>
+  <si>
+    <t>xn--kln-auto-n4a.de</t>
+  </si>
+  <si>
+    <t>leverkusen-schrott.de</t>
+  </si>
+  <si>
+    <t>schrott-ankauf-bonn.de</t>
+  </si>
+  <si>
+    <t>schrott-ankauf-duisburg.de</t>
+  </si>
+  <si>
+    <t>schrott-ankauf-essen.de</t>
+  </si>
+  <si>
+    <t>schrott-ankauf-gelsenkirchen.de</t>
+  </si>
+  <si>
+    <t>schrott-ankauf-wuppertal.de</t>
+  </si>
+  <si>
+    <t>schrott-recklinghausen.de</t>
+  </si>
+  <si>
+    <t>schrottgummersbach.de</t>
+  </si>
+  <si>
+    <t>schrottlohmar.de</t>
+  </si>
+  <si>
+    <t>schrottolpe.de</t>
+  </si>
+  <si>
+    <t>schrottratingen.de</t>
+  </si>
+  <si>
+    <t>schrottsiegburg.de</t>
+  </si>
+  <si>
+    <t>schrottunna.de</t>
   </si>
 </sst>
 </file>
@@ -215,12 +779,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -244,9 +826,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -561,19 +1152,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>"https://www." &amp; B1</f>
         <v>https://www.autoankauf-saarlouis.de</v>
@@ -582,472 +1173,2191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A53" si="0">"http://www." &amp; B2</f>
-        <v>http://www.autoankauf-hanau.de</v>
+        <f t="shared" ref="A2:A65" si="0">"https://www." &amp; B2</f>
+        <v>https://www.autoankauf-hanau.de</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-celle.de</v>
+        <v>https://www.autoankauf-celle.de</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-kiel.de</v>
+        <v>https://www.auto-ankauf-kiel.de</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.cuxhaven-autoankauf.de</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>https://www.cuxhaven-autoankauf.de</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.elmshorn-autoankauf.de</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>https://www.elmshorn-autoankauf.de</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-wismar.de</v>
+        <v>https://www.autoankauf-wismar.de</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-warendorf.de</v>
+        <v>https://www.auto-ankauf-warendorf.de</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-flensburg.de</v>
+        <v>https://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>"http://www." &amp; B11</f>
-        <v>http://www.velbert-autoankauf.de</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>https://www.velbert-autoankauf.de</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.recklinghausen-auto-ankauf.de</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-rendsburg.de</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>https://www.autoankauf-rendsburg.de</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-kaiserslautern.de</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>https://www.autoankauf-kaiserslautern.de</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.hamburg-auto-ankauf.de</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>https://www.hamburg-auto-ankauf.de</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.mainz-auto.de</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>https://www.mainz-auto.de</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-norderstedt.de</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>https://www.autoankauf-norderstedt.de</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.bad-segeberg-autoankauf.de</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>https://www.bad-segeberg-autoankauf.de</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-ahrensburg.de</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>https://www.autoankauf-ahrensburg.de</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-mnster-y6b.de</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autowuppertal.de</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>https://www.autowuppertal.de</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-langenhagen.de</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>https://www.autoankauf-langenhagen.de</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-gtersloh-1ec.de</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-giessen.de</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>https://www.auto-ankauf-giessen.de</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--neumnster-auto-ankauf-cic.de</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.bremen-auto-ankauf.de</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>https://www.bremen-auto-ankauf.de</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.wedel-autoankauf.de</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>https://www.wedel-autoankauf.de</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-hamm.de</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>https://www.kfz-ankauf-hamm.de</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-fulda.de</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>https://www.auto-ankauf-fulda.de</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-gttingen-gbc.de</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.chemnitz-autoankauf.de</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>https://www.chemnitz-autoankauf.de</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-lneburg-ilb.de</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-euskirchen.de</v>
-      </c>
-      <c r="B33" s="1" t="s">
+        <v>https://www.auto-ankauf-euskirchen.de</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.rostock-autoankauf.de</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>https://www.rostock-autoankauf.de</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.ingolstadt-auto-ankauf.de</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--kln-auto-ankauf-8sb.de</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--hxter-autoankauf-mwb.de</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-ulm.de</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>https://www.kfz-ankauf-ulm.de</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.hildesheim-autoankauf.de</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>https://www.hildesheim-autoankauf.de</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-augsburg.de</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>https://www.kfz-ankauf-augsburg.de</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.gummersbach-autoankauf.de</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>https://www.gummersbach-autoankauf.de</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.viersen-auto-ankauf.de</v>
-      </c>
-      <c r="B43" s="1" t="s">
+        <v>https://www.viersen-auto-ankauf.de</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.siegen-autoankauf.de</v>
-      </c>
-      <c r="B44" s="1" t="s">
+        <v>https://www.siegen-autoankauf.de</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
-      </c>
-      <c r="B45" s="1" t="s">
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.stade-autoankauf.de</v>
-      </c>
-      <c r="B46" s="1" t="s">
+        <v>https://www.stade-autoankauf.de</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-diepholz.de</v>
-      </c>
-      <c r="B47" s="1" t="s">
+        <v>https://www.autoankauf-diepholz.de</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geesthacht-autoankauf.de</v>
-      </c>
-      <c r="B48" s="1" t="s">
+        <v>https://www.geesthacht-autoankauf.de</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-dinslaken.de</v>
-      </c>
-      <c r="B49" s="1" t="s">
+        <v>https://www.auto-ankauf-dinslaken.de</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.frankfurt-auto.de</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>https://www.frankfurt-auto.de</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
-      </c>
-      <c r="B51" s="1" t="s">
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-hamburg.de</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>https://www.kfz-ankauf-hamburg.de</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.berlin-auto-ankauf.de</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-butzbach.de</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-bretten.de</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-aurich.de</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-cloppenburg.de</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-baden-baden.de</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.freiberg-auto-ankauf.de</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.kfz-ankauf-fulda.de</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:A129" si="1">"https://www." &amp; B66</f>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.dormagen-autoankauf.de</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-geldern.de</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-dachau.de</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.erkrath-autoankauf.de</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.erfurt-autoankauf.de</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.göppingen-autoankauf.de</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-steinborn.de</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-meisburg.de</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-birresborn.de</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-odelzhausen.de</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-cochem.de</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-burghaun.de</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-siegsdorf.de</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-hildburghausen.de</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-weilburg.de</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-finthen.de</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-warburg.de</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-sangerhausen.de</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-stendal.de</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-steinburg.de</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-ratzeburg.de</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-mainburg.de</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-preetz.de</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-wittlich.de</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-wittmund.de</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-hungen.de</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-karlsbad.de</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-brilon.de</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-homberg.de</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.herrenberg-autoankauf.de</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-passau.de</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-fritzlar.de</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-uelzen.de</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-meppen.de</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.unna-auto-ankauf.de</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-schwabach.de</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.kleve-auto-ankauf.de</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-dietzenbach.de</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-wernigerode.de</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-peine.de</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-mainz.de</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-merzig.de</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mayen-autoankauf.de</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-trier.de</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-daun.de</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-schwerin.de</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-helmstedt.de</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-marburg.de</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-forchheim.de</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-ahaus.de</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:A193" si="2">"https://www." &amp; B130</f>
+        <v>https://www.autoankauf-griesheim.de</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-northeim.de</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-altenburg.de</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-murnau.de</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.salzgitter-autoankauf.de</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bautzen.de</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-konstanz.de</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-mosbach.de</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-eppingen.de</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-duderstadt.de</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autohilden.de</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-gerolstein.de</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-butzbach.de</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-offenburg.de</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autohaan.de</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-landshut.de</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-kiel.de</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-gifhorn.de</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-pforzheim.de</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-neuwied.de</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-memmingen.de</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wolfsburg-autoankauf.de</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-traunstein.de</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-speyer.de</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.leipzig-autoankauf.de</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-siegburg.de</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-straubing.de</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-konstanz.de</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-rheine.de</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-itzehoe.de</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-aalen.de</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-kempen.de</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-halle-saale.de</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-soest.de</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-amberg.de</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.halle-auto-ankauf.de</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-bamberg.de</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.freiburg-auto-ankauf.de</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-zwickau.de</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-schleswig.de</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-minden.de</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.solingen-auto.de</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" ref="A194:A244" si="3">"https://www." &amp; B194</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.autoratingen.de</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-wesel.de</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-dresden.de</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-herne.de</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.autoleverkusen.de</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-bochum.de</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.autobonn.de</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.autoduisburg.de</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-herford.de</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.dortmund-auto-ankauf.de</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.montabaur-autoankauf.de</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.maintal-autoankauf.de</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.nordhausen-auto-ankauf.de</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.gotha-autoankauf.de</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.goslar-auto-ankauf.de</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--dsseldorf-auto-gsb.de</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kln-auto-n4a.de</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrott-ankauf-bonn.de</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrott-ankauf-essen.de</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrott-recklinghausen.de</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrottgummersbach.de</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrottlohmar.de</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrottolpe.de</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrottratingen.de</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrottsiegburg.de</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.schrottunna.de</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Intern\Projekt Autoankauf\Testing\webseit-test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jghem\Dropbox\Space\Lahib\testing\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522ECBD1-1178-4113-AF76-1AC51FD441E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC92D252-BB1B-4558-B4A8-C36241C88592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -699,25 +699,7 @@
     <t>dortmund-auto-ankauf.de</t>
   </si>
   <si>
-    <t>montabaur-autoankauf.de</t>
-  </si>
-  <si>
-    <t>maintal-autoankauf.de</t>
-  </si>
-  <si>
-    <t>nordhausen-auto-ankauf.de</t>
-  </si>
-  <si>
-    <t>gotha-autoankauf.de</t>
-  </si>
-  <si>
-    <t>goslar-auto-ankauf.de</t>
-  </si>
-  <si>
     <t>xn--dsseldorf-auto-gsb.de</t>
-  </si>
-  <si>
-    <t>xn--kln-auto-n4a.de</t>
   </si>
   <si>
     <t>leverkusen-schrott.de</t>
@@ -779,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,19 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -835,9 +811,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1152,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,8 +1141,8 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>"https://www." &amp; B1</f>
-        <v>https://www.autoankauf-saarlouis.de</v>
+        <f>"http://www." &amp; B1</f>
+        <v>http://www.autoankauf-saarlouis.de</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1175,8 +1150,8 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">"https://www." &amp; B2</f>
-        <v>https://www.autoankauf-hanau.de</v>
+        <f t="shared" ref="A2:A65" si="0">"http://www." &amp; B2</f>
+        <v>http://www.autoankauf-hanau.de</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1185,7 +1160,7 @@
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-celle.de</v>
+        <v>http://www.autoankauf-celle.de</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1194,7 +1169,7 @@
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-kiel.de</v>
+        <v>http://www.auto-ankauf-kiel.de</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1203,7 +1178,7 @@
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.cuxhaven-autoankauf.de</v>
+        <v>http://www.cuxhaven-autoankauf.de</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1212,7 +1187,7 @@
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.elmshorn-autoankauf.de</v>
+        <v>http://www.elmshorn-autoankauf.de</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1221,7 +1196,7 @@
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-wismar.de</v>
+        <v>http://www.autoankauf-wismar.de</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1230,7 +1205,7 @@
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-warendorf.de</v>
+        <v>http://www.auto-ankauf-warendorf.de</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1239,7 +1214,7 @@
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-flensburg.de</v>
+        <v>http://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1248,7 +1223,7 @@
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <v>http://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1257,7 +1232,7 @@
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.velbert-autoankauf.de</v>
+        <v>http://www.velbert-autoankauf.de</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1266,7 +1241,7 @@
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.recklinghausen-auto-ankauf.de</v>
+        <v>http://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1275,7 +1250,7 @@
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-rendsburg.de</v>
+        <v>http://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1284,7 +1259,7 @@
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-kaiserslautern.de</v>
+        <v>http://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1293,7 +1268,7 @@
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.hamburg-auto-ankauf.de</v>
+        <v>http://www.hamburg-auto-ankauf.de</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1302,7 +1277,7 @@
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.mainz-auto.de</v>
+        <v>http://www.mainz-auto.de</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -1311,7 +1286,7 @@
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-norderstedt.de</v>
+        <v>http://www.autoankauf-norderstedt.de</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1320,7 +1295,7 @@
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bad-segeberg-autoankauf.de</v>
+        <v>http://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -1329,7 +1304,7 @@
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-ahrensburg.de</v>
+        <v>http://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
@@ -1338,7 +1313,7 @@
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+        <v>http://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -1347,7 +1322,7 @@
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autowuppertal.de</v>
+        <v>http://www.autowuppertal.de</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -1356,7 +1331,7 @@
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-langenhagen.de</v>
+        <v>http://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -1365,7 +1340,7 @@
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+        <v>http://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -1374,7 +1349,7 @@
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-giessen.de</v>
+        <v>http://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1383,7 +1358,7 @@
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+        <v>http://www.xn--neumnster-auto-ankauf-cic.de</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -1392,7 +1367,7 @@
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bremen-auto-ankauf.de</v>
+        <v>http://www.bremen-auto-ankauf.de</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -1401,7 +1376,7 @@
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.wedel-autoankauf.de</v>
+        <v>http://www.wedel-autoankauf.de</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -1410,7 +1385,7 @@
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
+        <v>http://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -1419,7 +1394,7 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <v>http://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -1428,7 +1403,7 @@
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>http://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -1437,7 +1412,7 @@
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>http://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -1446,7 +1421,7 @@
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>http://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -1455,7 +1430,7 @@
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <v>http://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1464,7 +1439,7 @@
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <v>http://www.rostock-autoankauf.de</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -1473,7 +1448,7 @@
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <v>http://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -1482,7 +1457,7 @@
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>http://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -1491,7 +1466,7 @@
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>http://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -1500,7 +1475,7 @@
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <v>http://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -1509,7 +1484,7 @@
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <v>http://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -1518,7 +1493,7 @@
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <v>http://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -1527,7 +1502,7 @@
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <v>http://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -1536,7 +1511,7 @@
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <v>http://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -1545,7 +1520,7 @@
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <v>http://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -1554,7 +1529,7 @@
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <v>http://www.siegen-autoankauf.de</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -1563,7 +1538,7 @@
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>http://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -1572,7 +1547,7 @@
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.stade-autoankauf.de</v>
+        <v>http://www.stade-autoankauf.de</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -1581,7 +1556,7 @@
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>http://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -1590,7 +1565,7 @@
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.geesthacht-autoankauf.de</v>
+        <v>http://www.geesthacht-autoankauf.de</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -1599,7 +1574,7 @@
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>http://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -1608,7 +1583,7 @@
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>http://www.frankfurt-auto.de</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -1617,7 +1592,7 @@
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>http://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
@@ -1626,7 +1601,7 @@
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>http://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -1635,7 +1610,7 @@
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <v>http://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -1644,7 +1619,7 @@
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-butzbach.de</v>
+        <v>http://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -1653,7 +1628,7 @@
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-bretten.de</v>
+        <v>http://www.autoankauf-bretten.de</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>54</v>
@@ -1662,7 +1637,7 @@
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+        <v>http://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>55</v>
@@ -1671,7 +1646,7 @@
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-aurich.de</v>
+        <v>http://www.autoankauf-aurich.de</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>56</v>
@@ -1680,7 +1655,7 @@
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
+        <v>http://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>57</v>
@@ -1689,7 +1664,7 @@
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+        <v>http://www.auto-ankauf-aschaffenburg.de</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
@@ -1698,7 +1673,7 @@
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
+        <v>http://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -1707,7 +1682,7 @@
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <v>http://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
@@ -1716,7 +1691,7 @@
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <v>http://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
@@ -1725,7 +1700,7 @@
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <v>http://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
@@ -1734,7 +1709,7 @@
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <v>http://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
@@ -1743,7 +1718,7 @@
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <v>http://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
@@ -1751,8 +1726,8 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="1">"https://www." &amp; B66</f>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <f t="shared" ref="A66:A129" si="1">"http://www." &amp; B66</f>
+        <v>http://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
@@ -1761,7 +1736,7 @@
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>http://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
@@ -1770,7 +1745,7 @@
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>http://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
@@ -1779,7 +1754,7 @@
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>http://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -1788,7 +1763,7 @@
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>http://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -1797,7 +1772,7 @@
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <v>http://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
@@ -1806,7 +1781,7 @@
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>http://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
@@ -1815,7 +1790,7 @@
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.göppingen-autoankauf.de</v>
+        <v>http://www.göppingen-autoankauf.de</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
@@ -1824,7 +1799,7 @@
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>http://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
@@ -1833,7 +1808,7 @@
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>http://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -1842,7 +1817,7 @@
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>http://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -1851,7 +1826,7 @@
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>http://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
@@ -1860,7 +1835,7 @@
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>http://www.autoankauf-cochem.de</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -1869,7 +1844,7 @@
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>http://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>78</v>
@@ -1878,7 +1853,7 @@
     <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <v>http://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -1887,7 +1862,7 @@
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <v>http://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
@@ -1896,7 +1871,7 @@
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>http://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -1905,7 +1880,7 @@
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>http://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -1914,7 +1889,7 @@
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>http://www.autoankauf-finthen.de</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
@@ -1923,7 +1898,7 @@
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <v>http://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
@@ -1932,7 +1907,7 @@
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>http://www.autoankauf-warburg.de</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
@@ -1941,7 +1916,7 @@
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>http://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>86</v>
@@ -1950,7 +1925,7 @@
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <v>http://www.autoankauf-stendal.de</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
@@ -1959,7 +1934,7 @@
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>http://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
@@ -1968,7 +1943,7 @@
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <v>http://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
@@ -1977,7 +1952,7 @@
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>http://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
@@ -1986,7 +1961,7 @@
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>http://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
@@ -1995,7 +1970,7 @@
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>http://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
@@ -2004,7 +1979,7 @@
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>http://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
@@ -2013,7 +1988,7 @@
     <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>http://www.autoankauf-preetz.de</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>94</v>
@@ -2022,7 +1997,7 @@
     <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <v>http://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
@@ -2031,7 +2006,7 @@
     <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <v>http://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -2040,7 +2015,7 @@
     <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>http://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>97</v>
@@ -2049,7 +2024,7 @@
     <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>http://www.autoankauf-hungen.de</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -2058,7 +2033,7 @@
     <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>http://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
@@ -2067,7 +2042,7 @@
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>http://www.autoankauf-brilon.de</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>100</v>
@@ -2076,7 +2051,7 @@
     <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>http://www.autoankauf-homberg.de</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>101</v>
@@ -2085,7 +2060,7 @@
     <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>http://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
@@ -2094,7 +2069,7 @@
     <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>http://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>103</v>
@@ -2103,7 +2078,7 @@
     <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>http://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>104</v>
@@ -2112,7 +2087,7 @@
     <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <v>http://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>105</v>
@@ -2121,7 +2096,7 @@
     <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>http://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
@@ -2130,7 +2105,7 @@
     <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <v>http://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>107</v>
@@ -2139,7 +2114,7 @@
     <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>http://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>108</v>
@@ -2148,7 +2123,7 @@
     <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <v>http://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
@@ -2157,7 +2132,7 @@
     <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.unna-auto-ankauf.de</v>
+        <v>http://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
@@ -2166,7 +2141,7 @@
     <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwabach.de</v>
+        <v>http://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>111</v>
@@ -2175,7 +2150,7 @@
     <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-emsland.de</v>
+        <v>http://www.autoankauf-emsland.de</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>112</v>
@@ -2184,7 +2159,7 @@
     <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <v>http://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -2193,7 +2168,7 @@
     <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
+        <v>http://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>114</v>
@@ -2202,7 +2177,7 @@
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>http://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>115</v>
@@ -2211,7 +2186,7 @@
     <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>http://www.autoankauf-peine.de</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>116</v>
@@ -2220,7 +2195,7 @@
     <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>http://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>117</v>
@@ -2229,7 +2204,7 @@
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <v>http://www.autoankauf-merzig.de</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>118</v>
@@ -2238,7 +2213,7 @@
     <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <v>http://www.mayen-autoankauf.de</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>119</v>
@@ -2247,7 +2222,7 @@
     <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <v>http://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>120</v>
@@ -2256,7 +2231,7 @@
     <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <v>http://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>121</v>
@@ -2265,7 +2240,7 @@
     <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>http://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>122</v>
@@ -2274,7 +2249,7 @@
     <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>http://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>123</v>
@@ -2283,7 +2258,7 @@
     <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <v>http://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>124</v>
@@ -2292,7 +2267,7 @@
     <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <v>http://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>125</v>
@@ -2301,7 +2276,7 @@
     <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>http://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>126</v>
@@ -2310,7 +2285,7 @@
     <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <v>http://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>127</v>
@@ -2319,7 +2294,7 @@
     <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <v>http://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
@@ -2327,8 +2302,8 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A193" si="2">"https://www." &amp; B130</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" ref="A130:A193" si="2">"http://www." &amp; B130</f>
+        <v>http://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>129</v>
@@ -2337,7 +2312,7 @@
     <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>http://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>130</v>
@@ -2346,7 +2321,7 @@
     <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <v>http://www.autoankauf-northeim.de</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>131</v>
@@ -2355,7 +2330,7 @@
     <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>http://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>132</v>
@@ -2364,7 +2339,7 @@
     <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>http://www.autoankauf-murnau.de</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>133</v>
@@ -2373,7 +2348,7 @@
     <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>http://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>134</v>
@@ -2382,7 +2357,7 @@
     <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>http://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>135</v>
@@ -2391,7 +2366,7 @@
     <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>http://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>136</v>
@@ -2400,7 +2375,7 @@
     <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>http://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>137</v>
@@ -2409,7 +2384,7 @@
     <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>http://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>138</v>
@@ -2418,7 +2393,7 @@
     <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>http://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>139</v>
@@ -2427,7 +2402,7 @@
     <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>http://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>140</v>
@@ -2436,7 +2411,7 @@
     <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autohilden.de</v>
+        <v>http://www.autohilden.de</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>141</v>
@@ -2445,7 +2420,7 @@
     <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>http://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>142</v>
@@ -2454,7 +2429,7 @@
     <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>http://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>143</v>
@@ -2463,7 +2438,7 @@
     <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <v>http://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>144</v>
@@ -2472,7 +2447,7 @@
     <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <v>http://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>145</v>
@@ -2481,7 +2456,7 @@
     <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autohaan.de</v>
+        <v>http://www.autohaan.de</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>146</v>
@@ -2490,7 +2465,7 @@
     <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <v>http://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>147</v>
@@ -2499,7 +2474,7 @@
     <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <v>http://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>148</v>
@@ -2508,7 +2483,7 @@
     <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <v>http://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>149</v>
@@ -2517,7 +2492,7 @@
     <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <v>http://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>150</v>
@@ -2526,7 +2501,7 @@
     <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <v>http://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>151</v>
@@ -2535,7 +2510,7 @@
     <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <v>http://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>152</v>
@@ -2544,7 +2519,7 @@
     <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>http://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>153</v>
@@ -2553,7 +2528,7 @@
     <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>http://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>154</v>
@@ -2562,7 +2537,7 @@
     <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <v>http://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>155</v>
@@ -2571,7 +2546,7 @@
     <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>http://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>156</v>
@@ -2580,7 +2555,7 @@
     <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <v>http://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>157</v>
@@ -2589,7 +2564,7 @@
     <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <v>http://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>158</v>
@@ -2598,7 +2573,7 @@
     <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <v>http://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>159</v>
@@ -2607,7 +2582,7 @@
     <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+        <v>http://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>160</v>
@@ -2616,7 +2591,7 @@
     <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-speyer.de</v>
+        <v>http://www.autoankauf-speyer.de</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>161</v>
@@ -2625,7 +2600,7 @@
     <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-witten.de</v>
+        <v>http://www.auto-ankauf-witten.de</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>162</v>
@@ -2634,7 +2609,7 @@
     <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>http://www.leipzig-autoankauf.de</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>163</v>
@@ -2643,7 +2618,7 @@
     <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
+        <v>http://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>164</v>
@@ -2652,7 +2627,7 @@
     <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>http://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>165</v>
@@ -2661,7 +2636,7 @@
     <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>http://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>166</v>
@@ -2670,7 +2645,7 @@
     <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <v>http://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>167</v>
@@ -2679,7 +2654,7 @@
     <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <v>http://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>168</v>
@@ -2688,7 +2663,7 @@
     <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>http://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>169</v>
@@ -2697,7 +2672,7 @@
     <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <v>http://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>170</v>
@@ -2706,7 +2681,7 @@
     <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>http://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>171</v>
@@ -2715,7 +2690,7 @@
     <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <v>http://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>172</v>
@@ -2724,7 +2699,7 @@
     <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>http://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>173</v>
@@ -2733,7 +2708,7 @@
     <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <v>http://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>174</v>
@@ -2742,7 +2717,7 @@
     <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <v>http://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -2751,7 +2726,7 @@
     <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <v>http://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>176</v>
@@ -2760,7 +2735,7 @@
     <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <v>http://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>177</v>
@@ -2769,7 +2744,7 @@
     <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>http://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>178</v>
@@ -2778,7 +2753,7 @@
     <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <v>http://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>179</v>
@@ -2787,7 +2762,7 @@
     <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>http://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>180</v>
@@ -2796,7 +2771,7 @@
     <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <v>http://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>181</v>
@@ -2805,7 +2780,7 @@
     <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
+        <v>http://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>182</v>
@@ -2814,7 +2789,7 @@
     <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.halle-auto-ankauf.de</v>
+        <v>http://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>183</v>
@@ -2823,7 +2798,7 @@
     <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
+        <v>http://www.autoankauf-dillenburg.de</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>184</v>
@@ -2832,7 +2807,7 @@
     <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <v>http://www.schweinfurt-auto-ankauf.de</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>185</v>
@@ -2841,7 +2816,7 @@
     <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
+        <v>http://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>186</v>
@@ -2850,7 +2825,7 @@
     <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <v>http://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>187</v>
@@ -2859,7 +2834,7 @@
     <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>http://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>188</v>
@@ -2868,7 +2843,7 @@
     <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>http://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>189</v>
@@ -2877,7 +2852,7 @@
     <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>http://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>190</v>
@@ -2886,7 +2861,7 @@
     <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <v>http://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>191</v>
@@ -2895,7 +2870,7 @@
     <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.solingen-auto.de</v>
+        <v>http://www.solingen-auto.de</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>192</v>
@@ -2903,8 +2878,8 @@
     </row>
     <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A244" si="3">"https://www." &amp; B194</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" ref="A194:A238" si="3">"http://www." &amp; B194</f>
+        <v>http://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>193</v>
@@ -2913,7 +2888,7 @@
     <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>194</v>
@@ -2922,7 +2897,7 @@
     <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <v>http://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>195</v>
@@ -2931,7 +2906,7 @@
     <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <v>http://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>196</v>
@@ -2940,7 +2915,7 @@
     <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>http://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>197</v>
@@ -2949,7 +2924,7 @@
     <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <v>http://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>198</v>
@@ -2958,7 +2933,7 @@
     <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>199</v>
@@ -2967,7 +2942,7 @@
     <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoratingen.de</v>
+        <v>http://www.autoratingen.de</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>200</v>
@@ -2976,7 +2951,7 @@
     <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>http://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>201</v>
@@ -2985,7 +2960,7 @@
     <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <v>http://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>202</v>
@@ -2994,7 +2969,7 @@
     <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>http://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>203</v>
@@ -3003,7 +2978,7 @@
     <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>http://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>204</v>
@@ -3012,7 +2987,7 @@
     <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>205</v>
@@ -3021,7 +2996,7 @@
     <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <v>http://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>206</v>
@@ -3030,7 +3005,7 @@
     <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoleverkusen.de</v>
+        <v>http://www.autoleverkusen.de</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>207</v>
@@ -3039,7 +3014,7 @@
     <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <v>http://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>208</v>
@@ -3048,7 +3023,7 @@
     <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>209</v>
@@ -3057,7 +3032,7 @@
     <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>http://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>210</v>
@@ -3066,7 +3041,7 @@
     <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>http://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>211</v>
@@ -3075,7 +3050,7 @@
     <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>212</v>
@@ -3084,7 +3059,7 @@
     <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <v>http://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>213</v>
@@ -3093,7 +3068,7 @@
     <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>http://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>214</v>
@@ -3102,7 +3077,7 @@
     <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autobonn.de</v>
+        <v>http://www.autobonn.de</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>215</v>
@@ -3111,7 +3086,7 @@
     <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>216</v>
@@ -3120,7 +3095,7 @@
     <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <v>http://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>217</v>
@@ -3129,7 +3104,7 @@
     <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>http://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>218</v>
@@ -3138,7 +3113,7 @@
     <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>http://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>219</v>
@@ -3147,7 +3122,7 @@
     <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>220</v>
@@ -3156,7 +3131,7 @@
     <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoduisburg.de</v>
+        <v>http://www.autoduisburg.de</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>221</v>
@@ -3165,7 +3140,7 @@
     <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-herford.de</v>
+        <v>http://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>222</v>
@@ -3174,7 +3149,7 @@
     <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.dortmund-auto-ankauf.de</v>
+        <v>http://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>223</v>
@@ -3183,181 +3158,127 @@
     <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.montabaur-autoankauf.de</v>
-      </c>
-      <c r="B225" s="3" t="s">
+        <v>http://www.xn--dsseldorf-auto-gsb.de</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.maintal-autoankauf.de</v>
-      </c>
-      <c r="B226" s="3" t="s">
+        <v>http://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.nordhausen-auto-ankauf.de</v>
-      </c>
-      <c r="B227" s="3" t="s">
+        <v>http://www.schrott-ankauf-bonn.de</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gotha-autoankauf.de</v>
-      </c>
-      <c r="B228" s="3" t="s">
+        <v>http://www.schrott-ankauf-duisburg.de</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.goslar-auto-ankauf.de</v>
-      </c>
-      <c r="B229" s="3" t="s">
+        <v>http://www.schrott-ankauf-essen.de</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--dsseldorf-auto-gsb.de</v>
+        <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kln-auto-n4a.de</v>
-      </c>
-      <c r="B231" s="7" t="s">
+        <v>http://www.schrott-ankauf-wuppertal.de</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.leverkusen-schrott.de</v>
-      </c>
-      <c r="B232" s="8" t="s">
+        <v>http://www.schrott-recklinghausen.de</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
-      </c>
-      <c r="B233" s="8" t="s">
+        <v>http://www.schrottgummersbach.de</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
-      </c>
-      <c r="B234" s="8" t="s">
+        <v>http://www.schrottlohmar.de</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
-      </c>
-      <c r="B235" s="8" t="s">
+        <v>http://www.schrottolpe.de</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
-      </c>
-      <c r="B236" s="8" t="s">
+        <v>http://www.schrottratingen.de</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
-      </c>
-      <c r="B237" s="8" t="s">
+        <v>http://www.schrottsiegburg.de</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-recklinghausen.de</v>
-      </c>
-      <c r="B238" s="8" t="s">
+        <v>http://www.schrottunna.de</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottgummersbach.de</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottlohmar.de</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottolpe.de</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottratingen.de</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottsiegburg.de</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jghem\Dropbox\Space\Lahib\testing\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC92D252-BB1B-4558-B4A8-C36241C88592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8433586-230C-4845-9FB3-9BD1D51B01C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -697,9 +697,6 @@
   </si>
   <si>
     <t>dortmund-auto-ankauf.de</t>
-  </si>
-  <si>
-    <t>xn--dsseldorf-auto-gsb.de</t>
   </si>
   <si>
     <t>leverkusen-schrott.de</t>
@@ -812,7 +809,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1127,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1789,7 @@
         <f t="shared" si="1"/>
         <v>http://www.göppingen-autoankauf.de</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2878,7 +2875,7 @@
     </row>
     <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A238" si="3">"http://www." &amp; B194</f>
+        <f t="shared" ref="A194:A237" si="3">"http://www." &amp; B194</f>
         <v>http://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -3155,19 +3152,19 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--dsseldorf-auto-gsb.de</v>
-      </c>
-      <c r="B225" s="7" t="s">
+        <v>http://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.leverkusen-schrott.de</v>
+        <v>http://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>225</v>
@@ -3176,7 +3173,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-bonn.de</v>
+        <v>http://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>226</v>
@@ -3185,7 +3182,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-duisburg.de</v>
+        <v>http://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>227</v>
@@ -3194,7 +3191,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-essen.de</v>
+        <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>228</v>
@@ -3203,7 +3200,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>http://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>229</v>
@@ -3212,7 +3209,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-wuppertal.de</v>
+        <v>http://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>230</v>
@@ -3221,7 +3218,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-recklinghausen.de</v>
+        <v>http://www.schrottgummersbach.de</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>231</v>
@@ -3230,7 +3227,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottgummersbach.de</v>
+        <v>http://www.schrottlohmar.de</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>232</v>
@@ -3239,7 +3236,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottlohmar.de</v>
+        <v>http://www.schrottolpe.de</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>233</v>
@@ -3248,7 +3245,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottolpe.de</v>
+        <v>http://www.schrottratingen.de</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>234</v>
@@ -3257,7 +3254,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottratingen.de</v>
+        <v>http://www.schrottsiegburg.de</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>235</v>
@@ -3266,19 +3263,10 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottsiegburg.de</v>
+        <v>http://www.schrottunna.de</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="str">
-        <f t="shared" si="3"/>
-        <v>http://www.schrottunna.de</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jghem\Dropbox\Space\Lahib\testing\webseit-test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamil\Dropbox\Space\Lahib\testing\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8433586-230C-4845-9FB3-9BD1D51B01C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4D0697-1CCF-4F4F-BA95-E0409D30AFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>erfurt-autoankauf.de</t>
-  </si>
-  <si>
-    <t>göppingen-autoankauf.de</t>
   </si>
   <si>
     <t>autoankauf-steinborn.de</t>
@@ -758,7 +755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,12 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -809,7 +800,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1124,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1713,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="1">"http://www." &amp; B66</f>
+        <f t="shared" ref="A66:A128" si="1">"http://www." &amp; B66</f>
         <v>http://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1787,16 +1777,16 @@
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.göppingen-autoankauf.de</v>
-      </c>
-      <c r="B73" s="7" t="s">
+        <v>http://www.autoankauf-steinborn.de</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-steinborn.de</v>
+        <v>http://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
@@ -1805,7 +1795,7 @@
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-meisburg.de</v>
+        <v>http://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -1814,7 +1804,7 @@
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-birresborn.de</v>
+        <v>http://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -1823,7 +1813,7 @@
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-odelzhausen.de</v>
+        <v>http://www.autoankauf-cochem.de</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
@@ -1832,25 +1822,25 @@
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-cochem.de</v>
-      </c>
-      <c r="B78" s="1" t="s">
+        <v>http://www.autoankauf-burghaun.de</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-burghaun.de</v>
-      </c>
-      <c r="B79" s="2" t="s">
+        <v>http://www.autoankauf-siegsdorf.de</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-siegsdorf.de</v>
+        <v>http://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -1859,7 +1849,7 @@
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-pfarrkirchen.de</v>
+        <v>http://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
@@ -1868,7 +1858,7 @@
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-hildburghausen.de</v>
+        <v>http://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -1877,7 +1867,7 @@
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-weilburg.de</v>
+        <v>http://www.autoankauf-finthen.de</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -1886,7 +1876,7 @@
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-finthen.de</v>
+        <v>http://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
@@ -1895,7 +1885,7 @@
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-schwalmstadt.de</v>
+        <v>http://www.autoankauf-warburg.de</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
@@ -1904,25 +1894,25 @@
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-warburg.de</v>
-      </c>
-      <c r="B86" s="1" t="s">
+        <v>http://www.autoankauf-sangerhausen.de</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-sangerhausen.de</v>
-      </c>
-      <c r="B87" s="2" t="s">
+        <v>http://www.autoankauf-stendal.de</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-stendal.de</v>
+        <v>http://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
@@ -1931,7 +1921,7 @@
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-bad-salzungen.de</v>
+        <v>http://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
@@ -1940,7 +1930,7 @@
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-steinburg.de</v>
+        <v>http://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
@@ -1949,7 +1939,7 @@
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-ratzeburg.de</v>
+        <v>http://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
@@ -1958,7 +1948,7 @@
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-mainburg.de</v>
+        <v>http://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
@@ -1967,7 +1957,7 @@
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-bad-wildungen.de</v>
+        <v>http://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
@@ -1976,7 +1966,7 @@
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-ravensburg.de</v>
+        <v>http://www.autoankauf-preetz.de</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
@@ -1985,7 +1975,7 @@
     <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-preetz.de</v>
+        <v>http://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>94</v>
@@ -1994,7 +1984,7 @@
     <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-wittlich.de</v>
+        <v>http://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
@@ -2003,7 +1993,7 @@
     <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-steinfurt.de</v>
+        <v>http://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -2012,7 +2002,7 @@
     <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-wittmund.de</v>
+        <v>http://www.autoankauf-hungen.de</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>97</v>
@@ -2021,7 +2011,7 @@
     <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-hungen.de</v>
+        <v>http://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -2030,7 +2020,7 @@
     <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-karlsbad.de</v>
+        <v>http://www.autoankauf-brilon.de</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
@@ -2039,25 +2029,25 @@
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-brilon.de</v>
-      </c>
-      <c r="B101" s="1" t="s">
+        <v>http://www.autoankauf-homberg.de</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-homberg.de</v>
-      </c>
-      <c r="B102" s="2" t="s">
+        <v>http://www.herrenberg-autoankauf.de</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.herrenberg-autoankauf.de</v>
+        <v>http://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
@@ -2066,7 +2056,7 @@
     <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-pfaffenhofen.de</v>
+        <v>http://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>103</v>
@@ -2075,25 +2065,25 @@
     <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-miltenberg.de</v>
-      </c>
-      <c r="B105" s="1" t="s">
+        <v>http://www.auto-ankauf-passau.de</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-passau.de</v>
-      </c>
-      <c r="B106" s="2" t="s">
+        <v>http://www.autoankauf-fritzlar.de</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-fritzlar.de</v>
+        <v>http://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
@@ -2102,7 +2092,7 @@
     <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-uelzen.de</v>
+        <v>http://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>107</v>
@@ -2111,7 +2101,7 @@
     <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-bad-kissingen.de</v>
+        <v>http://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>108</v>
@@ -2120,7 +2110,7 @@
     <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-meppen.de</v>
+        <v>http://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
@@ -2129,7 +2119,7 @@
     <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.unna-auto-ankauf.de</v>
+        <v>http://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
@@ -2138,25 +2128,25 @@
     <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-schwabach.de</v>
-      </c>
-      <c r="B112" s="1" t="s">
+        <v>http://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B113" s="5" t="s">
+        <v>http://www.kleve-auto-ankauf.de</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kleve-auto-ankauf.de</v>
+        <v>http://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -2165,7 +2155,7 @@
     <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-dietzenbach.de</v>
+        <v>http://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>114</v>
@@ -2174,7 +2164,7 @@
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-wernigerode.de</v>
+        <v>http://www.autoankauf-peine.de</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>115</v>
@@ -2183,7 +2173,7 @@
     <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-peine.de</v>
+        <v>http://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>116</v>
@@ -2192,7 +2182,7 @@
     <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kfz-ankauf-mainz.de</v>
+        <v>http://www.autoankauf-merzig.de</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>117</v>
@@ -2201,7 +2191,7 @@
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-merzig.de</v>
+        <v>http://www.mayen-autoankauf.de</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>118</v>
@@ -2210,7 +2200,7 @@
     <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.mayen-autoankauf.de</v>
+        <v>http://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>119</v>
@@ -2219,7 +2209,7 @@
     <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.oldenburg-auto-ankauf.de</v>
+        <v>http://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>120</v>
@@ -2228,7 +2218,7 @@
     <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kfz-ankauf-trier.de</v>
+        <v>http://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>121</v>
@@ -2237,7 +2227,7 @@
     <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-daun.de</v>
+        <v>http://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>122</v>
@@ -2246,7 +2236,7 @@
     <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>http://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>123</v>
@@ -2255,16 +2245,16 @@
     <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-schwerin.de</v>
-      </c>
-      <c r="B125" s="1" t="s">
+        <v>http://www.autoankauf-helmstedt.de</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-helmstedt.de</v>
+        <v>http://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>125</v>
@@ -2273,16 +2263,16 @@
     <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kfz-ankauf-marburg.de</v>
-      </c>
-      <c r="B127" s="2" t="s">
+        <v>http://www.auto-ankauf-forchheim.de</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-forchheim.de</v>
+        <v>http://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>127</v>
@@ -2290,8 +2280,8 @@
     </row>
     <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" ref="A129:A192" si="2">"http://www." &amp; B129</f>
+        <v>http://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
@@ -2299,8 +2289,8 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A193" si="2">"http://www." &amp; B130</f>
-        <v>http://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="2"/>
+        <v>http://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>129</v>
@@ -2309,7 +2299,7 @@
     <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-sinsheim.de</v>
+        <v>http://www.autoankauf-northeim.de</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>130</v>
@@ -2318,7 +2308,7 @@
     <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-northeim.de</v>
+        <v>http://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>131</v>
@@ -2327,7 +2317,7 @@
     <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-altenburg.de</v>
+        <v>http://www.autoankauf-murnau.de</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>132</v>
@@ -2336,7 +2326,7 @@
     <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-murnau.de</v>
+        <v>http://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>133</v>
@@ -2345,7 +2335,7 @@
     <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.salzgitter-autoankauf.de</v>
+        <v>http://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>134</v>
@@ -2354,7 +2344,7 @@
     <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bautzen.de</v>
+        <v>http://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>135</v>
@@ -2363,25 +2353,25 @@
     <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-konstanz.de</v>
-      </c>
-      <c r="B137" s="1" t="s">
+        <v>http://www.autoankauf-mosbach.de</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-mosbach.de</v>
-      </c>
-      <c r="B138" s="2" t="s">
+        <v>http://www.auto-ankauf-eppingen.de</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-eppingen.de</v>
+        <v>http://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>138</v>
@@ -2390,7 +2380,7 @@
     <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-duderstadt.de</v>
+        <v>http://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>139</v>
@@ -2399,7 +2389,7 @@
     <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bad-segeberg.de</v>
+        <v>http://www.autohilden.de</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>140</v>
@@ -2408,7 +2398,7 @@
     <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autohilden.de</v>
+        <v>http://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>141</v>
@@ -2417,7 +2407,7 @@
     <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-gerolstein.de</v>
+        <v>http://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>142</v>
@@ -2426,7 +2416,7 @@
     <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-butzbach.de</v>
+        <v>http://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>143</v>
@@ -2435,7 +2425,7 @@
     <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-pinneberg.de</v>
+        <v>http://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>144</v>
@@ -2444,7 +2434,7 @@
     <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-offenburg.de</v>
+        <v>http://www.autohaan.de</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>145</v>
@@ -2453,7 +2443,7 @@
     <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autohaan.de</v>
+        <v>http://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>146</v>
@@ -2462,7 +2452,7 @@
     <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-landshut.de</v>
+        <v>http://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>147</v>
@@ -2471,7 +2461,7 @@
     <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bad-oldesloe.de</v>
+        <v>http://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>148</v>
@@ -2480,25 +2470,25 @@
     <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-bielefeld.de</v>
-      </c>
-      <c r="B150" s="1" t="s">
+        <v>http://www.kfz-ankauf-kiel.de</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-kiel.de</v>
-      </c>
-      <c r="B151" s="2" t="s">
+        <v>http://www.autoankauf-gifhorn.de</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-gifhorn.de</v>
+        <v>http://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>151</v>
@@ -2507,7 +2497,7 @@
     <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-pforzheim.de</v>
+        <v>http://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>152</v>
@@ -2516,25 +2506,25 @@
     <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-altenkirchen.de</v>
-      </c>
-      <c r="B154" s="1" t="s">
+        <v>http://www.auto-ankauf-neuwied.de</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-neuwied.de</v>
-      </c>
-      <c r="B155" s="2" t="s">
+        <v>http://www.autoankauf-bad-nauheim.de</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bad-nauheim.de</v>
+        <v>http://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>155</v>
@@ -2543,7 +2533,7 @@
     <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-memmingen.de</v>
+        <v>http://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>156</v>
@@ -2552,7 +2542,7 @@
     <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.wolfsburg-autoankauf.de</v>
+        <v>http://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>157</v>
@@ -2561,7 +2551,7 @@
     <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.wermelskirchen-autoankauf.de</v>
+        <v>http://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>158</v>
@@ -2570,7 +2560,7 @@
     <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-traunstein.de</v>
+        <v>http://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>159</v>
@@ -2579,7 +2569,7 @@
     <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-neubrandenburg.de</v>
+        <v>http://www.autoankauf-speyer.de</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>160</v>
@@ -2588,25 +2578,25 @@
     <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-speyer.de</v>
-      </c>
-      <c r="B162" s="1" t="s">
+        <v>http://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B163" s="5" t="s">
+        <v>http://www.leipzig-autoankauf.de</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.leipzig-autoankauf.de</v>
+        <v>http://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>163</v>
@@ -2615,7 +2605,7 @@
     <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-siegburg.de</v>
+        <v>http://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>164</v>
@@ -2624,7 +2614,7 @@
     <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>http://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>165</v>
@@ -2633,7 +2623,7 @@
     <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-regensburg.de</v>
+        <v>http://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>166</v>
@@ -2642,7 +2632,7 @@
     <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-deggendorf.de</v>
+        <v>http://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>167</v>
@@ -2651,7 +2641,7 @@
     <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-straubing.de</v>
+        <v>http://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>168</v>
@@ -2660,7 +2650,7 @@
     <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-konstanz.de</v>
+        <v>http://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>169</v>
@@ -2669,7 +2659,7 @@
     <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-ludwigsburg.de</v>
+        <v>http://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>170</v>
@@ -2678,7 +2668,7 @@
     <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-rheine.de</v>
+        <v>http://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>171</v>
@@ -2687,7 +2677,7 @@
     <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-itzehoe.de</v>
+        <v>http://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>172</v>
@@ -2696,7 +2686,7 @@
     <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-aalen.de</v>
+        <v>http://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>173</v>
@@ -2705,7 +2695,7 @@
     <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-kempen.de</v>
+        <v>http://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>174</v>
@@ -2714,7 +2704,7 @@
     <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-halle-saale.de</v>
+        <v>http://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -2723,7 +2713,7 @@
     <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-nettetal.de</v>
+        <v>http://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>176</v>
@@ -2732,25 +2722,25 @@
     <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.castrop-rauxel-autoankauf.de</v>
-      </c>
-      <c r="B178" s="1" t="s">
+        <v>http://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
-      </c>
-      <c r="B179" s="2" t="s">
+        <v>http://www.auto-ankauf-lippstadt.de</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-lippstadt.de</v>
+        <v>http://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>179</v>
@@ -2759,7 +2749,7 @@
     <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-heinsberg.de</v>
+        <v>http://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>180</v>
@@ -2768,7 +2758,7 @@
     <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-soest.de</v>
+        <v>http://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>181</v>
@@ -2777,7 +2767,7 @@
     <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-amberg.de</v>
+        <v>http://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>182</v>
@@ -2786,25 +2776,25 @@
     <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.halle-auto-ankauf.de</v>
-      </c>
-      <c r="B184" s="1" t="s">
+        <v>http://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B185" s="5" t="s">
+        <v>http://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.schweinfurt-auto-ankauf.de</v>
+        <v>http://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>185</v>
@@ -2813,7 +2803,7 @@
     <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-bielefeld.de</v>
+        <v>http://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>186</v>
@@ -2822,7 +2812,7 @@
     <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-bamberg.de</v>
+        <v>http://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>187</v>
@@ -2831,7 +2821,7 @@
     <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.freiburg-auto-ankauf.de</v>
+        <v>http://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>188</v>
@@ -2840,7 +2830,7 @@
     <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-zwickau.de</v>
+        <v>http://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>189</v>
@@ -2849,7 +2839,7 @@
     <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-schleswig.de</v>
+        <v>http://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>190</v>
@@ -2858,25 +2848,25 @@
     <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-minden.de</v>
-      </c>
-      <c r="B192" s="1" t="s">
+        <v>http://www.solingen-auto.de</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
-        <v>http://www.solingen-auto.de</v>
-      </c>
-      <c r="B193" s="2" t="s">
+        <f t="shared" ref="A193:A236" si="3">"http://www." &amp; B193</f>
+        <v>http://www.auto-ankauf-magdeburg.de</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A237" si="3">"http://www." &amp; B194</f>
-        <v>http://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="3"/>
+        <v>http://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>193</v>
@@ -2885,7 +2875,7 @@
     <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>http://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>194</v>
@@ -2894,25 +2884,25 @@
     <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
-      </c>
-      <c r="B196" s="1" t="s">
+        <v>http://www.frankfurt-am-main-autoankauf.de</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.frankfurt-am-main-autoankauf.de</v>
-      </c>
-      <c r="B197" s="2" t="s">
+        <v>http://www.xn--kfz-ankauf-mnster-e3b.de</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>http://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>197</v>
@@ -2921,7 +2911,7 @@
     <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-krefeld24.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>198</v>
@@ -2930,7 +2920,7 @@
     <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>http://www.autoratingen.de</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>199</v>
@@ -2939,7 +2929,7 @@
     <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autoratingen.de</v>
+        <v>http://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>200</v>
@@ -2948,7 +2938,7 @@
     <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-karlsruhe.de</v>
+        <v>http://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>201</v>
@@ -2957,7 +2947,7 @@
     <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-wesel.de</v>
+        <v>http://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>202</v>
@@ -2966,7 +2956,7 @@
     <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>http://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>203</v>
@@ -2975,7 +2965,7 @@
     <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-dresden.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>204</v>
@@ -2984,7 +2974,7 @@
     <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>http://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>205</v>
@@ -2993,7 +2983,7 @@
     <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-herne.de</v>
+        <v>http://www.autoleverkusen.de</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>206</v>
@@ -3002,7 +2992,7 @@
     <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autoleverkusen.de</v>
+        <v>http://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>207</v>
@@ -3011,7 +3001,7 @@
     <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-bochum.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>208</v>
@@ -3020,7 +3010,7 @@
     <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>http://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>209</v>
@@ -3029,7 +3019,7 @@
     <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>http://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>210</v>
@@ -3038,7 +3028,7 @@
     <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>211</v>
@@ -3047,7 +3037,7 @@
     <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>http://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>212</v>
@@ -3056,7 +3046,7 @@
     <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.wiesbaden-auto-ankauf.de</v>
+        <v>http://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>213</v>
@@ -3065,7 +3055,7 @@
     <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>http://www.autobonn.de</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>214</v>
@@ -3074,7 +3064,7 @@
     <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autobonn.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>215</v>
@@ -3083,7 +3073,7 @@
     <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>http://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>216</v>
@@ -3092,7 +3082,7 @@
     <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.stuttgart-auto-ankauf.de</v>
+        <v>http://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>217</v>
@@ -3101,7 +3091,7 @@
     <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-reutlingen.de</v>
+        <v>http://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>218</v>
@@ -3110,7 +3100,7 @@
     <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>http://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>219</v>
@@ -3119,7 +3109,7 @@
     <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>http://www.autoduisburg.de</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>220</v>
@@ -3128,7 +3118,7 @@
     <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autoduisburg.de</v>
+        <v>http://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>221</v>
@@ -3137,25 +3127,25 @@
     <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-herford.de</v>
+        <v>http://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B224" s="1" t="s">
+        <v>http://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.leverkusen-schrott.de</v>
+        <v>http://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>224</v>
@@ -3164,7 +3154,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-bonn.de</v>
+        <v>http://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>225</v>
@@ -3173,7 +3163,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-duisburg.de</v>
+        <v>http://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>226</v>
@@ -3182,7 +3172,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-essen.de</v>
+        <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>227</v>
@@ -3191,7 +3181,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>http://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>228</v>
@@ -3200,7 +3190,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-wuppertal.de</v>
+        <v>http://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>229</v>
@@ -3209,7 +3199,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-recklinghausen.de</v>
+        <v>http://www.schrottgummersbach.de</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>230</v>
@@ -3218,7 +3208,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottgummersbach.de</v>
+        <v>http://www.schrottlohmar.de</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>231</v>
@@ -3227,7 +3217,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottlohmar.de</v>
+        <v>http://www.schrottolpe.de</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>232</v>
@@ -3236,7 +3226,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottolpe.de</v>
+        <v>http://www.schrottratingen.de</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>233</v>
@@ -3245,7 +3235,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottratingen.de</v>
+        <v>http://www.schrottsiegburg.de</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>234</v>
@@ -3254,19 +3244,10 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottsiegburg.de</v>
+        <v>http://www.schrottunna.de</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="str">
-        <f t="shared" si="3"/>
-        <v>http://www.schrottunna.de</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamil\Dropbox\Space\Lahib\testing\webseit-test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4D0697-1CCF-4F4F-BA95-E0409D30AFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A00C346-1D6D-4795-8378-D96FE1EF9BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -733,6 +742,9 @@
   </si>
   <si>
     <t>schrottunna.de</t>
+  </si>
+  <si>
+    <t>maintal-autoankauf.de</t>
   </si>
 </sst>
 </file>
@@ -790,13 +802,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1114,19 +1124,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>"http://www." &amp; B1</f>
         <v>http://www.autoankauf-saarlouis.de</v>
@@ -1135,2118 +1145,2127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">"http://www." &amp; B2</f>
+        <f>"http://www." &amp; B2</f>
+        <v>http://www.maintal-autoankauf.de</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="0">"http://www." &amp; B3</f>
         <v>http://www.autoankauf-hanau.de</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-celle.de</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-kiel.de</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>http://www.cuxhaven-autoankauf.de</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>http://www.elmshorn-autoankauf.de</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-wismar.de</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-warendorf.de</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-flensburg.de</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>http://www.velbert-autoankauf.de</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>http://www.recklinghausen-auto-ankauf.de</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-rendsburg.de</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-kaiserslautern.de</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>http://www.hamburg-auto-ankauf.de</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>http://www.mainz-auto.de</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-norderstedt.de</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>http://www.bad-segeberg-autoankauf.de</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-ahrensburg.de</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autowuppertal.de</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-langenhagen.de</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-giessen.de</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--neumnster-auto-ankauf-cic.de</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>http://www.bremen-auto-ankauf.de</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>http://www.wedel-autoankauf.de</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>http://www.kfz-ankauf-hamm.de</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-fulda.de</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>http://www.chemnitz-autoankauf.de</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-lneburg-ilb.de</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-euskirchen.de</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>http://www.rostock-autoankauf.de</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>http://www.ingolstadt-auto-ankauf.de</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>http://www.kfz-ankauf-ulm.de</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>http://www.hildesheim-autoankauf.de</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>http://www.kfz-ankauf-augsburg.de</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>http://www.gummersbach-autoankauf.de</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>http://www.viersen-auto-ankauf.de</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>http://www.siegen-autoankauf.de</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>http://www.stade-autoankauf.de</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-diepholz.de</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>http://www.geesthacht-autoankauf.de</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-dinslaken.de</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>http://www.frankfurt-auto.de</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>http://www.kfz-ankauf-hamburg.de</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>http://www.berlin-auto-ankauf.de</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-butzbach.de</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-bretten.de</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>http://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-aurich.de</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-cloppenburg.de</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-aschaffenburg.de</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-baden-baden.de</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>http://www.auto-ankauf-coesfeld.de</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>http://www.autoankauf-bad-hersfeld.de</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>http://www.braunschweig-auto-ankauf.de</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>http://www.freiberg-auto-ankauf.de</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>http://www.kfz-ankauf-fulda.de</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f t="shared" ref="A66:A128" si="1">"http://www." &amp; B66</f>
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A129" si="1">"http://www." &amp; B67</f>
         <v>http://www.kfz-ankauf-eisenach.de</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-darmstadt.de</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>http://www.dormagen-autoankauf.de</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-geldern.de</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
+    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-dachau.de</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
+    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>http://www.erkrath-autoankauf.de</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
+    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>http://www.erfurt-autoankauf.de</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
+    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-steinborn.de</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
+    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-meisburg.de</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
+    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-birresborn.de</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
+    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-odelzhausen.de</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-cochem.de</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-burghaun.de</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-siegsdorf.de</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-pfarrkirchen.de</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-hildburghausen.de</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-weilburg.de</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-finthen.de</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-schwalmstadt.de</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-warburg.de</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-sangerhausen.de</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-stendal.de</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-bad-salzungen.de</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-steinburg.de</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-ratzeburg.de</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-mainburg.de</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-bad-wildungen.de</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-ravensburg.de</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-preetz.de</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-wittlich.de</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-steinfurt.de</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-wittmund.de</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-hungen.de</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-karlsbad.de</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-brilon.de</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-homberg.de</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>http://www.herrenberg-autoankauf.de</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-pfaffenhofen.de</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-miltenberg.de</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-passau.de</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-fritzlar.de</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-uelzen.de</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-bad-kissingen.de</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-meppen.de</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>http://www.unna-auto-ankauf.de</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-schwabach.de</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-emsland.de</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>http://www.kleve-auto-ankauf.de</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-dietzenbach.de</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-wernigerode.de</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
+    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-peine.de</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
+    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>http://www.kfz-ankauf-mainz.de</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
+    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-merzig.de</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
+    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>http://www.mayen-autoankauf.de</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
+    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>http://www.oldenburg-auto-ankauf.de</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
+    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>http://www.kfz-ankauf-trier.de</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
+    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-daun.de</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
+    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
+    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-schwerin.de</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
+    <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>http://www.autoankauf-helmstedt.de</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
+    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>http://www.kfz-ankauf-marburg.de</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
+    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-forchheim.de</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
+    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>http://www.auto-ankauf-ahaus.de</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f t="shared" ref="A129:A192" si="2">"http://www." &amp; B129</f>
+    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:A193" si="2">"http://www." &amp; B130</f>
         <v>http://www.autoankauf-griesheim.de</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
+    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-sinsheim.de</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
+    <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-northeim.de</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
+    <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-altenburg.de</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
+    <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-murnau.de</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
+    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>http://www.salzgitter-autoankauf.de</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
+    <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-bautzen.de</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
+    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-konstanz.de</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
+    <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-mosbach.de</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
+    <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-eppingen.de</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
+    <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-duderstadt.de</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
+    <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-bad-segeberg.de</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
+    <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autohilden.de</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
+    <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-gerolstein.de</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
+    <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-butzbach.de</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
+    <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-pinneberg.de</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
+    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-offenburg.de</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
+    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autohaan.de</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
+    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-landshut.de</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+    <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-bad-oldesloe.de</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+    <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-bielefeld.de</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+    <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>http://www.kfz-ankauf-kiel.de</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+    <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-gifhorn.de</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-pforzheim.de</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+    <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-altenkirchen.de</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+    <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-neuwied.de</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+    <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-bad-nauheim.de</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+    <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-memmingen.de</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+    <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>http://www.wolfsburg-autoankauf.de</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>http://www.wermelskirchen-autoankauf.de</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+    <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-traunstein.de</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
+    <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>http://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
+    <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-speyer.de</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
+    <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-witten.de</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
+    <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>http://www.leipzig-autoankauf.de</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
+    <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-siegburg.de</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
+    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>http://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
+    <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>http://www.kfz-ankauf-regensburg.de</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
+    <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-deggendorf.de</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
+    <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-straubing.de</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
+    <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-konstanz.de</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
+    <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-ludwigsburg.de</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
+    <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-rheine.de</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
+    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-itzehoe.de</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
+    <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-aalen.de</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
+    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-kempen.de</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
+    <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-halle-saale.de</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
+    <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>http://www.kfz-ankauf-nettetal.de</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
+    <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>http://www.castrop-rauxel-autoankauf.de</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
+    <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>http://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
+    <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-lippstadt.de</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
+    <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-heinsberg.de</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
+    <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-soest.de</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
+    <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-amberg.de</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
+    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>http://www.halle-auto-ankauf.de</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
+    <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-dillenburg.de</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
+    <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>http://www.schweinfurt-auto-ankauf.de</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
+    <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>http://www.kfz-ankauf-bielefeld.de</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
+    <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-bamberg.de</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
+    <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>http://www.freiburg-auto-ankauf.de</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
+    <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-zwickau.de</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
+    <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>http://www.autoankauf-schleswig.de</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" t="str">
+    <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>http://www.auto-ankauf-minden.de</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" t="str">
+    <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>http://www.solingen-auto.de</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" t="str">
-        <f t="shared" ref="A193:A236" si="3">"http://www." &amp; B193</f>
+    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" t="str">
+        <f t="shared" ref="A194:A237" si="3">"http://www." &amp; B194</f>
         <v>http://www.auto-ankauf-magdeburg.de</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" t="str">
+    <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" t="str">
+    <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>http://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" t="str">
+    <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>http://www.frankfurt-am-main-autoankauf.de</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" t="str">
+    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>http://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" t="str">
+    <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>http://www.auto-ankauf-krefeld24.de</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" t="str">
+    <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" t="str">
+    <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>http://www.autoratingen.de</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" t="str">
+    <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>http://www.auto-ankauf-karlsruhe.de</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" t="str">
+    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>http://www.auto-ankauf-wesel.de</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" t="str">
+    <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>http://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" t="str">
+    <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>http://www.kfz-ankauf-dresden.de</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" t="str">
+    <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" t="str">
+    <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>http://www.kfz-ankauf-herne.de</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" t="str">
+    <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>http://www.autoleverkusen.de</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" t="str">
+    <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>http://www.kfz-ankauf-bochum.de</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" t="str">
+    <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" t="str">
+    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>http://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" t="str">
+    <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>http://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" t="str">
+    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" t="str">
+    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>http://www.wiesbaden-auto-ankauf.de</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" t="str">
+    <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>http://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" t="str">
+    <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>http://www.autobonn.de</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" t="str">
+    <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" t="str">
+    <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>http://www.stuttgart-auto-ankauf.de</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" t="str">
+    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>http://www.kfz-ankauf-reutlingen.de</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" t="str">
+    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>http://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" t="str">
+    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>http://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" t="str">
+    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>http://www.autoduisburg.de</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" t="str">
+    <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>http://www.auto-ankauf-herford.de</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" t="str">
+    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>http://www.dortmund-auto-ankauf.de</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="str">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>http://www.leverkusen-schrott.de</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B225" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="str">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrott-ankauf-bonn.de</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B226" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="str">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrott-ankauf-duisburg.de</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B227" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="str">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrott-ankauf-essen.de</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B228" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="str">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B229" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="str">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrott-ankauf-wuppertal.de</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B230" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="str">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrott-recklinghausen.de</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B231" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="str">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrottgummersbach.de</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B232" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="str">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrottlohmar.de</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B233" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="str">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrottolpe.de</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B234" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="str">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrottratingen.de</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B235" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="str">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrottsiegburg.de</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B236" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="str">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>http://www.schrottunna.de</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B237" s="4" t="s">
         <v>235</v>
       </c>
     </row>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A00C346-1D6D-4795-8378-D96FE1EF9BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65F701-6D2E-4A1D-8D72-AB0A3DF73A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -742,9 +742,6 @@
   </si>
   <si>
     <t>schrottunna.de</t>
-  </si>
-  <si>
-    <t>maintal-autoankauf.de</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,8 +1135,8 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
-        <f>"http://www." &amp; B1</f>
-        <v>http://www.autoankauf-saarlouis.de</v>
+        <f>"https://www." &amp; B1</f>
+        <v>https://www.autoankauf-saarlouis.de</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1147,2125 +1144,2116 @@
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>"http://www." &amp; B2</f>
-        <v>http://www.maintal-autoankauf.de</v>
+        <f t="shared" ref="A2:A64" si="0">"https://www." &amp; B2</f>
+        <v>https://www.autoankauf-hanau.de</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">"http://www." &amp; B3</f>
-        <v>http://www.autoankauf-hanau.de</v>
+        <f t="shared" si="0"/>
+        <v>https://www.autoankauf-celle.de</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-celle.de</v>
+        <v>https://www.auto-ankauf-kiel.de</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-kiel.de</v>
+        <v>https://www.cuxhaven-autoankauf.de</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.cuxhaven-autoankauf.de</v>
+        <v>https://www.elmshorn-autoankauf.de</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.elmshorn-autoankauf.de</v>
+        <v>https://www.autoankauf-wismar.de</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-wismar.de</v>
+        <v>https://www.auto-ankauf-warendorf.de</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-warendorf.de</v>
+        <v>https://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-flensburg.de</v>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <v>https://www.velbert-autoankauf.de</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.velbert-autoankauf.de</v>
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.recklinghausen-auto-ankauf.de</v>
+        <v>https://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-rendsburg.de</v>
+        <v>https://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-kaiserslautern.de</v>
+        <v>https://www.hamburg-auto-ankauf.de</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.hamburg-auto-ankauf.de</v>
+        <v>https://www.mainz-auto.de</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.mainz-auto.de</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>https://www.autoankauf-norderstedt.de</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-norderstedt.de</v>
+        <v>https://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.bad-segeberg-autoankauf.de</v>
+        <v>https://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-ahrensburg.de</v>
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-mnster-y6b.de</v>
+        <v>https://www.autowuppertal.de</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autowuppertal.de</v>
+        <v>https://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-langenhagen.de</v>
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+        <v>https://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-giessen.de</v>
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--neumnster-auto-ankauf-cic.de</v>
+        <v>https://www.bremen-auto-ankauf.de</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.bremen-auto-ankauf.de</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>https://www.wedel-autoankauf.de</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.wedel-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-hamm.de</v>
+        <v>https://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-fulda.de</v>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.chemnitz-autoankauf.de</v>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-lneburg-ilb.de</v>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-euskirchen.de</v>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.rostock-autoankauf.de</v>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.ingolstadt-auto-ankauf.de</v>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>https://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-ulm.de</v>
+        <v>https://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.hildesheim-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-augsburg.de</v>
+        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.gummersbach-autoankauf.de</v>
+        <v>https://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.viersen-auto-ankauf.de</v>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.siegen-autoankauf.de</v>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>https://www.stade-autoankauf.de</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.stade-autoankauf.de</v>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-diepholz.de</v>
+        <v>https://www.geesthacht-autoankauf.de</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.geesthacht-autoankauf.de</v>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-dinslaken.de</v>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.frankfurt-auto.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-hamburg.de</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.berlin-auto-ankauf.de</v>
+        <v>https://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-butzbach.de</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>https://www.autoankauf-bretten.de</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-bretten.de</v>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.xn--autoankauf-ldenscheid-kic.de</v>
+        <v>https://www.autoankauf-aurich.de</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-aurich.de</v>
+        <v>https://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-cloppenburg.de</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-aschaffenburg.de</v>
+        <v>https://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-baden-baden.de</v>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.auto-ankauf-coesfeld.de</v>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.autoankauf-bad-hersfeld.de</v>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>http://www.braunschweig-auto-ankauf.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>http://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" ref="A65:A128" si="1">"https://www." &amp; B65</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v>http://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A129" si="1">"http://www." &amp; B67</f>
-        <v>http://www.kfz-ankauf-eisenach.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.dormagen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-geldern.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-dachau.de</v>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.erkrath-autoankauf.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.erfurt-autoankauf.de</v>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-steinborn.de</v>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-meisburg.de</v>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-birresborn.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-cochem.de</v>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-siegsdorf.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-pfarrkirchen.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-weilburg.de</v>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-schwalmstadt.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-warburg.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-stendal.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-steinburg.de</v>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-mainburg.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-preetz.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-wittlich.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-steinfurt.de</v>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-wittmund.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-hungen.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-brilon.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-homberg.de</v>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.herrenberg-autoankauf.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-passau.de</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-fritzlar.de</v>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-uelzen.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-meppen.de</v>
+        <v>https://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.unna-auto-ankauf.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-schwabach.de</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>110</v>
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kleve-auto-ankauf.de</v>
+        <v>https://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-dietzenbach.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-wernigerode.de</v>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-peine.de</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-merzig.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.mayen-autoankauf.de</v>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.oldenburg-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kfz-ankauf-trier.de</v>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-daun.de</v>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-schwerin.de</v>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.autoankauf-helmstedt.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-forchheim.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
-        <v>http://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" ref="A129:A192" si="2">"https://www." &amp; B129</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A193" si="2">"http://www." &amp; B130</f>
-        <v>http://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-sinsheim.de</v>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-northeim.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-altenburg.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-murnau.de</v>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bautzen.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-konstanz.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-mosbach.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-duderstadt.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autohilden.de</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-gerolstein.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-pinneberg.de</v>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-offenburg.de</v>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autohaan.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-landshut.de</v>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bad-oldesloe.de</v>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-bielefeld.de</v>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-kiel.de</v>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-gifhorn.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-pforzheim.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-bad-nauheim.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.wolfsburg-autoankauf.de</v>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.wermelskirchen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-traunstein.de</v>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-neubrandenburg.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-speyer.de</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>160</v>
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>161</v>
+        <v>https://www.leipzig-autoankauf.de</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.leipzig-autoankauf.de</v>
+        <v>https://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-siegburg.de</v>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-deggendorf.de</v>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-straubing.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-ludwigsburg.de</v>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-rheine.de</v>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-itzehoe.de</v>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-aalen.de</v>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-kempen.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-halle-saale.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-nettetal.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.castrop-rauxel-autoankauf.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-lippstadt.de</v>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-soest.de</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-amberg.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.halle-auto-ankauf.de</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>182</v>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>183</v>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.schweinfurt-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.kfz-ankauf-bielefeld.de</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-bamberg.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-zwickau.de</v>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.autoankauf-schleswig.de</v>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>http://www.auto-ankauf-minden.de</v>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
-        <v>http://www.solingen-auto.de</v>
+        <f t="shared" ref="A193:A236" si="3">"https://www." &amp; B193</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A237" si="3">"http://www." &amp; B194</f>
-        <v>http://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.frankfurt-am-main-autoankauf.de</v>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-krefeld24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autoratingen.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-wesel.de</v>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-herne.de</v>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autoleverkusen.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-bochum.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.wiesbaden-auto-ankauf.de</v>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autobonn.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.stuttgart-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.autoduisburg.de</v>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.auto-ankauf-herford.de</v>
+        <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>222</v>
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.leverkusen-schrott.de</v>
+        <v>https://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-bonn.de</v>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-essen.de</v>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-ankauf-wuppertal.de</v>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrott-recklinghausen.de</v>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottgummersbach.de</v>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottlohmar.de</v>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottolpe.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottratingen.de</v>
+        <v>https://www.schrottsiegburg.de</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>http://www.schrottsiegburg.de</v>
+        <v>https://www.schrottunna.de</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="str">
-        <f t="shared" si="3"/>
-        <v>http://www.schrottunna.de</v>
-      </c>
-      <c r="B237" s="4" t="s">
         <v>235</v>
       </c>
     </row>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65F701-6D2E-4A1D-8D72-AB0A3DF73A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F20126-C9F2-4C59-BE6D-153C5415BD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
+    <workbookView xWindow="2328" yWindow="144" windowWidth="20076" windowHeight="12096" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>autoankauf-saarlouis.de</t>
   </si>
@@ -742,6 +742,30 @@
   </si>
   <si>
     <t>schrottunna.de</t>
+  </si>
+  <si>
+    <t>amjis.com</t>
+  </si>
+  <si>
+    <t>ilamecca.de</t>
+  </si>
+  <si>
+    <t>kalender.amjis.com</t>
+  </si>
+  <si>
+    <t>nivontec.de</t>
+  </si>
+  <si>
+    <t>nordstern.gmbh</t>
+  </si>
+  <si>
+    <t>nma-hamburg.de</t>
+  </si>
+  <si>
+    <t>smarttech-elektro.de</t>
+  </si>
+  <si>
+    <t>dr-elrafei.de</t>
   </si>
 </sst>
 </file>
@@ -764,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,6 +798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,6 +837,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1121,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2863,7 +2894,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" ref="A193:A236" si="3">"https://www." &amp; B193</f>
+        <f t="shared" ref="A193:A243" si="3">"https://www." &amp; B193</f>
         <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -3255,6 +3286,78 @@
       </c>
       <c r="B236" s="4" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.amjis.com</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.ilamecca.de</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.kalender.amjis.com</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.nivontec.de</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.nordstern.gmbh</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.nma-hamburg.de</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.smarttech-elektro.de</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="str">
+        <f>"https://" &amp; B244</f>
+        <v>https://dr-elrafei.de</v>
+      </c>
+      <c r="B244" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F20126-C9F2-4C59-BE6D-153C5415BD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7FA54-134C-4283-86CB-F8CB93F102F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2328" yWindow="144" windowWidth="20076" windowHeight="12096" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -747,9 +747,6 @@
     <t>amjis.com</t>
   </si>
   <si>
-    <t>ilamecca.de</t>
-  </si>
-  <si>
     <t>kalender.amjis.com</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
   </si>
   <si>
     <t>dr-elrafei.de</t>
+  </si>
+  <si>
+    <t>ilamecca.com</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3300,10 +3300,10 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.ilamecca.de</v>
+        <v>https://www.ilamecca.com</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3312,7 +3312,7 @@
         <v>https://www.kalender.amjis.com</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3321,7 +3321,7 @@
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>https://www.nordstern.gmbh</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3339,7 +3339,7 @@
         <v>https://www.nma-hamburg.de</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3348,7 @@
         <v>https://www.smarttech-elektro.de</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
         <v>https://dr-elrafei.de</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7FA54-134C-4283-86CB-F8CB93F102F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756C091-66C8-49A4-ACD2-7C75D6A2D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2328" yWindow="144" windowWidth="20076" windowHeight="12096" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,28 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
-  <si>
-    <t>autoankauf-saarlouis.de</t>
-  </si>
-  <si>
-    <t>autoankauf-hanau.de</t>
-  </si>
-  <si>
-    <t>autoankauf-celle.de</t>
-  </si>
-  <si>
-    <t>auto-ankauf-kiel.de</t>
-  </si>
-  <si>
-    <t>cuxhaven-autoankauf.de</t>
-  </si>
-  <si>
-    <t>elmshorn-autoankauf.de</t>
-  </si>
-  <si>
-    <t>autoankauf-wismar.de</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="238">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -766,13 +745,16 @@
   </si>
   <si>
     <t>ilamecca.com</t>
+  </si>
+  <si>
+    <t>https://wiki.nordstern.gmbh/index.php?title=Hauptseite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +765,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -829,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,6 +826,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1152,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,2200 +1154,2211 @@
     <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>"https://www." &amp; B1</f>
-        <v>https://www.autoankauf-saarlouis.de</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A64" si="0">"https://www." &amp; B2</f>
-        <v>https://www.autoankauf-hanau.de</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <f>"https://www." &amp; B2</f>
+        <v>https://www.ilamecca.com</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-celle.de</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="A3:A66" si="0">"https://www." &amp; B3</f>
+        <v>https://www.kalender.amjis.com</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-kiel.de</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.nivontec.de</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.cuxhaven-autoankauf.de</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.nordstern.gmbh</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.elmshorn-autoankauf.de</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-wismar.de</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.nma-hamburg.de</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-warendorf.de</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.smarttech-elektro.de</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-flensburg.de</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+        <f>"https://" &amp; B9</f>
+        <v>https://dr-elrafei.de</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <v>https://www.auto-ankauf-warendorf.de</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.velbert-autoankauf.de</v>
+        <v>https://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.recklinghausen-auto-ankauf.de</v>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-rendsburg.de</v>
+        <v>https://www.velbert-autoankauf.de</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-kaiserslautern.de</v>
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.hamburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.mainz-auto.de</v>
+        <v>https://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-norderstedt.de</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>https://www.hamburg-auto-ankauf.de</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bad-segeberg-autoankauf.de</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>https://www.mainz-auto.de</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-ahrensburg.de</v>
+        <v>https://www.autoankauf-norderstedt.de</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+        <v>https://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autowuppertal.de</v>
+        <v>https://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-langenhagen.de</v>
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+        <v>https://www.autowuppertal.de</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-giessen.de</v>
+        <v>https://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bremen-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.wedel-autoankauf.de</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>https://www.bremen-auto-ankauf.de</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <v>https://www.wedel-autoankauf.de</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>https://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>https://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <v>https://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <v>https://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>https://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.stade-autoankauf.de</v>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.geesthacht-autoankauf.de</v>
+        <v>https://www.stade-autoankauf.de</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>https://www.geesthacht-autoankauf.de</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-butzbach.de</v>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-bretten.de</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>https://www.autoankauf-butzbach.de</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-aurich.de</v>
+        <v>https://www.autoankauf-bretten.de</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>https://www.autoankauf-aurich.de</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>https://www.autoankauf-cloppenburg.de</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <v>https://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" ref="A65:A128" si="1">"https://www." &amp; B65</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="0"/>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <f t="shared" si="0"/>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <f t="shared" ref="A67:A130" si="1">"https://www." &amp; B67</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.unna-auto-ankauf.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwabach.de</v>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>111</v>
+        <v>https://www.unna-auto-ankauf.de</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>https://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
-        <f t="shared" ref="A129:A192" si="2">"https://www." &amp; B129</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <f t="shared" ref="A131:A194" si="2">"https://www." &amp; B131</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autohilden.de</v>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autohaan.de</v>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-speyer.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>161</v>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>163</v>
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.leipzig-autoankauf.de</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.halle-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>183</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>185</v>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.solingen-auto.de</v>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" ref="A193:A243" si="3">"https://www." &amp; B193</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <f t="shared" ref="A195:A245" si="3">"https://www." &amp; B195</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoratingen.de</v>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoleverkusen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autobonn.de</v>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoduisburg.de</v>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-herford.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
+        <v>https://www.autoduisburg.de</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-herford.de</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" t="str">
+        <f t="shared" si="3"/>
         <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.leverkusen-schrott.de</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>224</v>
+      <c r="B225" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.leverkusen-schrott.de</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
+        <v>https://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrott-recklinghausen.de</v>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrottgummersbach.de</v>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrottlohmar.de</v>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrottolpe.de</v>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrottratingen.de</v>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrottsiegburg.de</v>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schrottunna.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.amjis.com</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>236</v>
+        <v>https://www.schrottsiegburg.de</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.ilamecca.com</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>243</v>
+        <v>https://www.schrottunna.de</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kalender.amjis.com</v>
+        <v>https://www.amjis.com</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.nivontec.de</v>
+        <v>https://www.ilamecca.com</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.nordstern.gmbh</v>
+        <v>https://www.kalender.amjis.com</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.nma-hamburg.de</v>
+        <v>https://www.nivontec.de</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.smarttech-elektro.de</v>
+        <v>https://www.nordstern.gmbh</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="str">
-        <f>"https://" &amp; B244</f>
+        <f t="shared" si="3"/>
+        <v>https://www.nma-hamburg.de</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="str">
+        <f t="shared" si="3"/>
+        <v>https://www.smarttech-elektro.de</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="str">
+        <f>"https://" &amp; B246</f>
         <v>https://dr-elrafei.de</v>
       </c>
-      <c r="B244" t="s">
-        <v>242</v>
+      <c r="B246" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756C091-66C8-49A4-ACD2-7C75D6A2D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16AACE-8731-4092-95BC-8BFBE6476F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2328" yWindow="144" windowWidth="20076" windowHeight="12096" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -826,8 +826,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1144,9 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
   <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1155,7 +1152,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="A1" t="str">
+        <f>"https://www." &amp; B1</f>
+        <v>https://www.amjis.com</v>
+      </c>
+      <c r="B1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -1164,7 +1165,7 @@
         <f>"https://www." &amp; B2</f>
         <v>https://www.ilamecca.com</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1173,7 +1174,7 @@
         <f t="shared" ref="A3:A66" si="0">"https://www." &amp; B3</f>
         <v>https://www.kalender.amjis.com</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1182,7 +1183,7 @@
         <f t="shared" si="0"/>
         <v>https://www.nivontec.de</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -1200,7 +1201,7 @@
         <f t="shared" si="0"/>
         <v>https://www.nma-hamburg.de</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -1208,14 +1209,13 @@
       <c r="A7" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.smarttech-elektro.de</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>234</v>
       </c>
     </row>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16AACE-8731-4092-95BC-8BFBE6476F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71943361-3102-4B8E-BF5C-1EDC6279891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="144" windowWidth="20076" windowHeight="12096" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="240">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -726,9 +726,6 @@
     <t>amjis.com</t>
   </si>
   <si>
-    <t>kalender.amjis.com</t>
-  </si>
-  <si>
     <t>nivontec.de</t>
   </si>
   <si>
@@ -748,6 +745,15 @@
   </si>
   <si>
     <t>https://wiki.nordstern.gmbh/index.php?title=Hauptseite</t>
+  </si>
+  <si>
+    <t>key.stonepulse.de</t>
+  </si>
+  <si>
+    <t>todo.stonepulse.de</t>
+  </si>
+  <si>
+    <t>kalender.stonepulse.de</t>
   </si>
 </sst>
 </file>
@@ -1141,9 +1147,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1162,2203 +1170,2158 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>"https://www." &amp; B2</f>
-        <v>https://www.ilamecca.com</v>
+        <f t="shared" ref="A2:A4" si="0">"https://www." &amp; B2</f>
+        <v>https://www.key.stonepulse.de</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">"https://www." &amp; B3</f>
-        <v>https://www.kalender.amjis.com</v>
+        <f t="shared" si="0"/>
+        <v>https://www.kalender.stonepulse.de</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.nivontec.de</v>
+        <v>https://www.todo.stonepulse.de</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.nordstern.gmbh</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>232</v>
+        <f>"https://www." &amp; B5</f>
+        <v>https://www.ilamecca.com</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.nma-hamburg.de</v>
+        <f t="shared" ref="A6:A68" si="1">"https://www." &amp; B6</f>
+        <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>237</v>
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.nordstern.gmbh</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>https://www.nma-hamburg.de</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
         <v>https://www.smarttech-elektro.de</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>"https://" &amp; B11</f>
+        <v>https://dr-elrafei.de</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>"https://" &amp; B9</f>
-        <v>https://dr-elrafei.de</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-warendorf.de</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-flensburg.de</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-warendorf.de</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.velbert-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.recklinghausen-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-rendsburg.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.velbert-autoankauf.de</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-kaiserslautern.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.hamburg-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.mainz-auto.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-norderstedt.de</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>https://www.hamburg-auto-ankauf.de</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.bad-segeberg-autoankauf.de</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>https://www.mainz-auto.de</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-ahrensburg.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-norderstedt.de</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autowuppertal.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-langenhagen.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autowuppertal.de</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-giessen.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.bremen-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.wedel-autoankauf.de</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>https://www.bremen-auto-ankauf.de</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.wedel-autoankauf.de</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.stade-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.geesthacht-autoankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.stade-autoankauf.de</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.geesthacht-autoankauf.de</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-butzbach.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-bretten.de</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>https://www.berlin-auto-ankauf.de</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-butzbach.de</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-aurich.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-bretten.de</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-aurich.de</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-cloppenburg.de</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">"https://www." &amp; B67</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="1"/>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <f t="shared" ref="A69:A132" si="2">"https://www." &amp; B69</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.unna-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwabach.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>https://www.unna-auto-ankauf.de</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">"https://www." &amp; B131</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <f t="shared" ref="A133:A196" si="3">"https://www." &amp; B133</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autohilden.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autohaan.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-speyer.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>154</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>156</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.leipzig-autoankauf.de</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.halle-auto-ankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>176</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-amberg.de</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>178</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.solingen-auto.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A245" si="3">"https://www." &amp; B195</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <f t="shared" ref="A197:A241" si="4">"https://www." &amp; B197</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoratingen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoleverkusen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autobonn.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoduisburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-herford.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>https://www.autoduisburg.de</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" t="str">
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-herford.de</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" t="str">
+        <f t="shared" si="4"/>
         <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.leverkusen-schrott.de</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.leverkusen-schrott.de</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrott-recklinghausen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottgummersbach.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottlohmar.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottolpe.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottratingen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottsiegburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schrottunna.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.amjis.com</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>229</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrottsiegburg.de</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.ilamecca.com</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>236</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schrottunna.de</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kalender.amjis.com</v>
+        <f t="shared" si="4"/>
+        <v>https://www.smarttech-elektro.de</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.nivontec.de</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.nordstern.gmbh</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.nma-hamburg.de</v>
-      </c>
-      <c r="B244" s="5" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.smarttech-elektro.de</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="str">
-        <f>"https://" &amp; B246</f>
-        <v>https://dr-elrafei.de</v>
-      </c>
-      <c r="B246" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71943361-3102-4B8E-BF5C-1EDC6279891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1646C2D9-4E83-4190-937F-5EF7FC969C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -747,13 +747,13 @@
     <t>https://wiki.nordstern.gmbh/index.php?title=Hauptseite</t>
   </si>
   <si>
-    <t>key.stonepulse.de</t>
-  </si>
-  <si>
-    <t>todo.stonepulse.de</t>
-  </si>
-  <si>
-    <t>kalender.stonepulse.de</t>
+    <t>key.stonepulse.com</t>
+  </si>
+  <si>
+    <t>kalender.stonepulse.com</t>
+  </si>
+  <si>
+    <t>todo.stonepulse.com</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1171,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A4" si="0">"https://www." &amp; B2</f>
-        <v>https://www.key.stonepulse.de</v>
+        <v>https://www.key.stonepulse.com</v>
       </c>
       <c r="B2" t="s">
         <v>237</v>
@@ -1180,19 +1180,19 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.kalender.stonepulse.de</v>
+        <v>https://www.kalender.stonepulse.com</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.todo.stonepulse.de</v>
+        <v>https://www.todo.stonepulse.com</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E451C1D-967F-4B5A-8739-7890E0E804CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F36520-1700-4F5C-B2B9-F11EBE2CE4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F36520-1700-4F5C-B2B9-F11EBE2CE4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF53B57-A991-4F8D-B635-63FCED55DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="237">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -150,13 +150,7 @@
     <t>xn--auto-ankauf-saarbrcken-9lc.de</t>
   </si>
   <si>
-    <t>stade-autoankauf.de</t>
-  </si>
-  <si>
     <t>autoankauf-diepholz.de</t>
-  </si>
-  <si>
-    <t>geesthacht-autoankauf.de</t>
   </si>
   <si>
     <t>auto-ankauf-dinslaken.de</t>
@@ -1144,109 +1138,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B240"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.453125" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>"https://www." &amp; B1</f>
         <v>https://www.amjis.com</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A4" si="0">"https://www." &amp; B2</f>
         <v>https://www.key.stonepulse.com</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.kalender.stonepulse.com</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>https://www.todo.stonepulse.com</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>"https://www." &amp; B5</f>
         <v>https://www.ilamecca.com</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A67" si="1">"https://www." &amp; B6</f>
+        <f t="shared" ref="A6:A65" si="1">"https://www." &amp; B6</f>
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.nordstern.gmbh</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.nma-hamburg.de</v>
+      </c>
+      <c r="B8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.nordstern.gmbh</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.smarttech-elektro.de</v>
+      </c>
+      <c r="B9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.nma-hamburg.de</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.smarttech-elektro.de</v>
-      </c>
-      <c r="B9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>"https://" &amp; B10</f>
         <v>https://dr-elrafei.de</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.auto-ankauf-warendorf.de</v>
@@ -1255,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autoankauf-flensburg.de</v>
@@ -1264,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
@@ -1273,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>https://www.velbert-autoankauf.de</v>
@@ -1282,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>https://www.recklinghausen-auto-ankauf.de</v>
@@ -1291,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autoankauf-rendsburg.de</v>
@@ -1300,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autoankauf-kaiserslautern.de</v>
@@ -1309,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>https://www.hamburg-auto-ankauf.de</v>
@@ -1318,7 +1312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>https://www.mainz-auto.de</v>
@@ -1327,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autoankauf-norderstedt.de</v>
@@ -1336,7 +1330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>https://www.bad-segeberg-autoankauf.de</v>
@@ -1345,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autoankauf-ahrensburg.de</v>
@@ -1354,7 +1348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
@@ -1363,7 +1357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autowuppertal.de</v>
@@ -1372,7 +1366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>https://www.autoankauf-langenhagen.de</v>
@@ -1381,7 +1375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
@@ -1390,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>https://www.auto-ankauf-giessen.de</v>
@@ -1399,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
@@ -1408,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v>https://www.bremen-auto-ankauf.de</v>
@@ -1417,7 +1411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v>https://www.wedel-autoankauf.de</v>
@@ -1426,7 +1420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v>https://www.kfz-ankauf-hamm.de</v>
@@ -1435,7 +1429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v>https://www.auto-ankauf-fulda.de</v>
@@ -1444,7 +1438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
@@ -1453,7 +1447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>https://www.chemnitz-autoankauf.de</v>
@@ -1462,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-lneburg-ilb.de</v>
@@ -1471,7 +1465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>https://www.auto-ankauf-euskirchen.de</v>
@@ -1480,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>https://www.rostock-autoankauf.de</v>
@@ -1489,7 +1483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>https://www.ingolstadt-auto-ankauf.de</v>
@@ -1498,7 +1492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
@@ -1507,7 +1501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--hxter-autoankauf-mwb.de</v>
@@ -1516,7 +1510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>https://www.kfz-ankauf-ulm.de</v>
@@ -1525,7 +1519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>https://www.hildesheim-autoankauf.de</v>
@@ -1534,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>https://www.kfz-ankauf-augsburg.de</v>
@@ -1543,7 +1537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
@@ -1552,7 +1546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>https://www.gummersbach-autoankauf.de</v>
@@ -1561,7 +1555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>https://www.viersen-auto-ankauf.de</v>
@@ -1570,7 +1564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>https://www.siegen-autoankauf.de</v>
@@ -1579,7 +1573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
@@ -1588,1732 +1582,1714 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.stade-autoankauf.de</v>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.geesthacht-autoankauf.de</v>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>https://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
-      </c>
-      <c r="B56" s="1" t="s">
+        <v>https://www.autoankauf-bretten.de</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-butzbach.de</v>
-      </c>
-      <c r="B57" s="1" t="s">
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bretten.de</v>
+        <v>https://www.autoankauf-aurich.de</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+        <v>https://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-aurich.de</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>https://www.autoankauf-baden-baden.de</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <f t="shared" ref="A66:A129" si="2">"https://www." &amp; B66</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A131" si="2">"https://www." &amp; B68</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.unna-auto-ankauf.de</v>
-      </c>
-      <c r="B113" s="1" t="s">
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwabach.de</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B115" s="3" t="s">
+        <v>https://www.autoankauf-dietzenbach.de</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <f t="shared" ref="A130:A193" si="3">"https://www." &amp; B130</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A195" si="3">"https://www." &amp; B132</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohilden.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohaan.de</v>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
-      </c>
-      <c r="B163" s="1" t="s">
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-speyer.de</v>
+        <v>https://www.leipzig-autoankauf.de</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B165" s="3" t="s">
+        <v>https://www.auto-ankauf-siegburg.de</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
-      </c>
-      <c r="B185" s="1" t="s">
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.halle-auto-ankauf.de</v>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B187" s="3" t="s">
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <f t="shared" ref="A194:A238" si="4">"https://www." &amp; B194</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.solingen-auto.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
-        <f t="shared" ref="A196:A240" si="4">"https://www." &amp; B196</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoratingen.de</v>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoleverkusen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autobonn.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoduisburg.de</v>
+        <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-herford.de</v>
-      </c>
-      <c r="B225" s="1" t="s">
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B226" s="1" t="s">
+        <v>https://www.schrott-ankauf-bonn.de</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.leverkusen-schrott.de</v>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-recklinghausen.de</v>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottgummersbach.de</v>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottlohmar.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottolpe.de</v>
+        <v>https://www.schrottsiegburg.de</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottratingen.de</v>
+        <v>https://www.schrottunna.de</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottsiegburg.de</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" t="str">
-        <f t="shared" si="4"/>
         <v>https://www.smarttech-elektro.de</v>
       </c>
-      <c r="B240" s="5" t="s">
-        <v>233</v>
+      <c r="B238" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF53B57-A991-4F8D-B635-63FCED55DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52DDFC4-81F3-428B-8DBC-19ACC95F7C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="235">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -93,9 +93,6 @@
     <t>bremen-auto-ankauf.de</t>
   </si>
   <si>
-    <t>wedel-autoankauf.de</t>
-  </si>
-  <si>
     <t>kfz-ankauf-hamm.de</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
   </si>
   <si>
     <t>kfz-ankauf-augsburg.de</t>
-  </si>
-  <si>
-    <t>xn--auto-ankauf-lbeck-f3b.de</t>
   </si>
   <si>
     <t>gummersbach-autoankauf.de</t>
@@ -1138,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1150,7 @@
         <v>https://www.amjis.com</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1159,7 @@
         <v>https://www.key.stonepulse.com</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1168,7 @@
         <v>https://www.kalender.stonepulse.com</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1183,7 +1177,7 @@
         <v>https://www.todo.stonepulse.com</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1192,16 +1186,16 @@
         <v>https://www.ilamecca.com</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A65" si="1">"https://www." &amp; B6</f>
+        <f t="shared" ref="A6:A63" si="1">"https://www." &amp; B6</f>
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1204,7 @@
         <v>https://www.nordstern.gmbh</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1213,7 @@
         <v>https://www.nma-hamburg.de</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1222,7 @@
         <v>https://www.smarttech-elektro.de</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1231,7 @@
         <v>https://dr-elrafei.de</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1414,7 +1408,7 @@
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.wedel-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -1423,7 +1417,7 @@
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
+        <v>https://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -1432,7 +1426,7 @@
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -1441,7 +1435,7 @@
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -1450,7 +1444,7 @@
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -1459,7 +1453,7 @@
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
@@ -1468,7 +1462,7 @@
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>25</v>
@@ -1477,7 +1471,7 @@
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
@@ -1486,7 +1480,7 @@
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
@@ -1495,7 +1489,7 @@
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>28</v>
@@ -1504,7 +1498,7 @@
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>https://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>29</v>
@@ -1513,7 +1507,7 @@
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <v>https://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -1522,7 +1516,7 @@
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>31</v>
@@ -1531,7 +1525,7 @@
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
@@ -1540,7 +1534,7 @@
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-lbeck-f3b.de</v>
+        <v>https://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>33</v>
@@ -1549,7 +1543,7 @@
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>34</v>
@@ -1558,7 +1552,7 @@
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
@@ -1567,7 +1561,7 @@
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>36</v>
@@ -1576,7 +1570,7 @@
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>37</v>
@@ -1585,7 +1579,7 @@
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
@@ -1594,7 +1588,7 @@
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>39</v>
@@ -1603,7 +1597,7 @@
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>40</v>
@@ -1612,7 +1606,7 @@
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>41</v>
@@ -1621,7 +1615,7 @@
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>https://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>42</v>
@@ -1630,25 +1624,25 @@
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>https://www.autoankauf-bretten.de</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-butzbach.de</v>
-      </c>
-      <c r="B55" s="1" t="s">
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bretten.de</v>
+        <v>https://www.autoankauf-aurich.de</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>45</v>
@@ -1657,7 +1651,7 @@
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+        <v>https://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>46</v>
@@ -1666,25 +1660,25 @@
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-aurich.de</v>
-      </c>
-      <c r="B58" s="2" t="s">
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>https://www.autoankauf-baden-baden.de</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>49</v>
@@ -1693,7 +1687,7 @@
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>50</v>
@@ -1702,7 +1696,7 @@
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>51</v>
@@ -1711,7 +1705,7 @@
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>52</v>
@@ -1719,8 +1713,8 @@
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <f t="shared" ref="A64:A127" si="2">"https://www." &amp; B64</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>53</v>
@@ -1728,8 +1722,8 @@
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>54</v>
@@ -1737,8 +1731,8 @@
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="2">"https://www." &amp; B66</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>55</v>
@@ -1747,7 +1741,7 @@
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>56</v>
@@ -1756,7 +1750,7 @@
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>57</v>
@@ -1765,7 +1759,7 @@
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>58</v>
@@ -1774,7 +1768,7 @@
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>59</v>
@@ -1783,7 +1777,7 @@
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>60</v>
@@ -1792,7 +1786,7 @@
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>61</v>
@@ -1801,7 +1795,7 @@
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>62</v>
@@ -1810,7 +1804,7 @@
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>63</v>
@@ -1819,7 +1813,7 @@
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>64</v>
@@ -1828,7 +1822,7 @@
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>65</v>
@@ -1837,7 +1831,7 @@
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>66</v>
@@ -1846,7 +1840,7 @@
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>67</v>
@@ -1855,7 +1849,7 @@
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
@@ -1864,7 +1858,7 @@
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
@@ -1873,7 +1867,7 @@
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>70</v>
@@ -1882,7 +1876,7 @@
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>71</v>
@@ -1891,7 +1885,7 @@
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>72</v>
@@ -1900,7 +1894,7 @@
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>73</v>
@@ -1909,7 +1903,7 @@
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>74</v>
@@ -1918,7 +1912,7 @@
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>75</v>
@@ -1927,7 +1921,7 @@
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>76</v>
@@ -1936,7 +1930,7 @@
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>77</v>
@@ -1945,7 +1939,7 @@
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>78</v>
@@ -1954,7 +1948,7 @@
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>79</v>
@@ -1963,7 +1957,7 @@
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>80</v>
@@ -1972,7 +1966,7 @@
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>81</v>
@@ -1981,7 +1975,7 @@
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>82</v>
@@ -1990,7 +1984,7 @@
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>83</v>
@@ -1999,7 +1993,7 @@
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>84</v>
@@ -2008,7 +2002,7 @@
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>85</v>
@@ -2017,7 +2011,7 @@
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>86</v>
@@ -2026,7 +2020,7 @@
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>87</v>
@@ -2035,7 +2029,7 @@
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>88</v>
@@ -2044,7 +2038,7 @@
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>89</v>
@@ -2053,7 +2047,7 @@
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>90</v>
@@ -2062,7 +2056,7 @@
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>91</v>
@@ -2071,7 +2065,7 @@
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>92</v>
@@ -2080,7 +2074,7 @@
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>93</v>
@@ -2089,7 +2083,7 @@
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>94</v>
@@ -2098,7 +2092,7 @@
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>95</v>
@@ -2107,7 +2101,7 @@
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>96</v>
@@ -2116,7 +2110,7 @@
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>97</v>
@@ -2125,7 +2119,7 @@
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>98</v>
@@ -2134,7 +2128,7 @@
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>99</v>
@@ -2143,16 +2137,16 @@
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.unna-auto-ankauf.de</v>
-      </c>
-      <c r="B111" s="1" t="s">
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwabach.de</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>101</v>
@@ -2161,16 +2155,16 @@
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B113" s="3" t="s">
+        <v>https://www.autoankauf-dietzenbach.de</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>103</v>
@@ -2179,7 +2173,7 @@
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>104</v>
@@ -2188,7 +2182,7 @@
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>105</v>
@@ -2197,7 +2191,7 @@
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>106</v>
@@ -2206,7 +2200,7 @@
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>107</v>
@@ -2215,7 +2209,7 @@
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>108</v>
@@ -2224,7 +2218,7 @@
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>109</v>
@@ -2233,7 +2227,7 @@
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>110</v>
@@ -2242,7 +2236,7 @@
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>111</v>
@@ -2251,7 +2245,7 @@
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>112</v>
@@ -2260,7 +2254,7 @@
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>113</v>
@@ -2269,7 +2263,7 @@
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>114</v>
@@ -2278,7 +2272,7 @@
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>115</v>
@@ -2287,7 +2281,7 @@
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>116</v>
@@ -2295,8 +2289,8 @@
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <f t="shared" ref="A128:A191" si="3">"https://www." &amp; B128</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>117</v>
@@ -2304,8 +2298,8 @@
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>118</v>
@@ -2313,8 +2307,8 @@
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A193" si="3">"https://www." &amp; B130</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>119</v>
@@ -2323,7 +2317,7 @@
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>120</v>
@@ -2332,7 +2326,7 @@
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>121</v>
@@ -2341,7 +2335,7 @@
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>122</v>
@@ -2350,7 +2344,7 @@
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>123</v>
@@ -2359,7 +2353,7 @@
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>124</v>
@@ -2368,7 +2362,7 @@
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>125</v>
@@ -2377,7 +2371,7 @@
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>126</v>
@@ -2386,7 +2380,7 @@
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>127</v>
@@ -2395,7 +2389,7 @@
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>128</v>
@@ -2404,7 +2398,7 @@
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>129</v>
@@ -2413,7 +2407,7 @@
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>130</v>
@@ -2422,7 +2416,7 @@
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohilden.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>131</v>
@@ -2431,7 +2425,7 @@
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>132</v>
@@ -2440,7 +2434,7 @@
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>133</v>
@@ -2449,7 +2443,7 @@
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>134</v>
@@ -2458,7 +2452,7 @@
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>135</v>
@@ -2467,7 +2461,7 @@
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohaan.de</v>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>136</v>
@@ -2476,7 +2470,7 @@
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>137</v>
@@ -2485,7 +2479,7 @@
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>138</v>
@@ -2494,7 +2488,7 @@
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>139</v>
@@ -2503,7 +2497,7 @@
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>140</v>
@@ -2512,7 +2506,7 @@
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>141</v>
@@ -2521,7 +2515,7 @@
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>142</v>
@@ -2530,7 +2524,7 @@
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>143</v>
@@ -2539,7 +2533,7 @@
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>144</v>
@@ -2548,7 +2542,7 @@
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>145</v>
@@ -2557,7 +2551,7 @@
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>146</v>
@@ -2566,7 +2560,7 @@
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>147</v>
@@ -2575,7 +2569,7 @@
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>148</v>
@@ -2584,7 +2578,7 @@
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>149</v>
@@ -2593,16 +2587,16 @@
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
-      </c>
-      <c r="B161" s="1" t="s">
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-speyer.de</v>
+        <v>https://www.leipzig-autoankauf.de</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>151</v>
@@ -2611,16 +2605,16 @@
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B163" s="3" t="s">
+        <v>https://www.auto-ankauf-siegburg.de</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>153</v>
@@ -2629,7 +2623,7 @@
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>154</v>
@@ -2638,7 +2632,7 @@
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>155</v>
@@ -2647,7 +2641,7 @@
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>156</v>
@@ -2656,7 +2650,7 @@
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>157</v>
@@ -2665,7 +2659,7 @@
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>158</v>
@@ -2674,7 +2668,7 @@
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>159</v>
@@ -2683,7 +2677,7 @@
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>160</v>
@@ -2692,7 +2686,7 @@
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>161</v>
@@ -2701,7 +2695,7 @@
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>162</v>
@@ -2710,7 +2704,7 @@
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>163</v>
@@ -2719,7 +2713,7 @@
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>164</v>
@@ -2728,7 +2722,7 @@
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>165</v>
@@ -2737,7 +2731,7 @@
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>166</v>
@@ -2746,7 +2740,7 @@
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>167</v>
@@ -2755,7 +2749,7 @@
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>168</v>
@@ -2764,7 +2758,7 @@
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>169</v>
@@ -2773,7 +2767,7 @@
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>170</v>
@@ -2782,7 +2776,7 @@
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>171</v>
@@ -2791,16 +2785,16 @@
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
-      </c>
-      <c r="B183" s="1" t="s">
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.halle-auto-ankauf.de</v>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>173</v>
@@ -2809,16 +2803,16 @@
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B185" s="3" t="s">
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>175</v>
@@ -2827,7 +2821,7 @@
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>176</v>
@@ -2836,7 +2830,7 @@
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>177</v>
@@ -2845,7 +2839,7 @@
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>178</v>
@@ -2854,7 +2848,7 @@
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>179</v>
@@ -2863,7 +2857,7 @@
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>180</v>
@@ -2871,8 +2865,8 @@
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <f t="shared" ref="A192:A236" si="4">"https://www." &amp; B192</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>181</v>
@@ -2880,8 +2874,8 @@
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.solingen-auto.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>182</v>
@@ -2889,8 +2883,8 @@
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A238" si="4">"https://www." &amp; B194</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>183</v>
@@ -2899,7 +2893,7 @@
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>184</v>
@@ -2908,7 +2902,7 @@
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>185</v>
@@ -2917,7 +2911,7 @@
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>186</v>
@@ -2926,7 +2920,7 @@
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>187</v>
@@ -2935,7 +2929,7 @@
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>188</v>
@@ -2944,7 +2938,7 @@
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>189</v>
@@ -2953,7 +2947,7 @@
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoratingen.de</v>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>190</v>
@@ -2962,7 +2956,7 @@
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>191</v>
@@ -2971,7 +2965,7 @@
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>192</v>
@@ -2980,7 +2974,7 @@
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>193</v>
@@ -2989,7 +2983,7 @@
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>194</v>
@@ -2998,7 +2992,7 @@
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>195</v>
@@ -3007,7 +3001,7 @@
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>196</v>
@@ -3016,7 +3010,7 @@
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoleverkusen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>197</v>
@@ -3025,7 +3019,7 @@
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>198</v>
@@ -3034,7 +3028,7 @@
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>199</v>
@@ -3043,7 +3037,7 @@
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>200</v>
@@ -3052,7 +3046,7 @@
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>201</v>
@@ -3061,7 +3055,7 @@
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>202</v>
@@ -3070,7 +3064,7 @@
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>203</v>
@@ -3079,7 +3073,7 @@
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>204</v>
@@ -3088,7 +3082,7 @@
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autobonn.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>205</v>
@@ -3097,7 +3091,7 @@
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>206</v>
@@ -3106,7 +3100,7 @@
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>207</v>
@@ -3115,7 +3109,7 @@
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>208</v>
@@ -3124,7 +3118,7 @@
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>209</v>
@@ -3133,7 +3127,7 @@
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>210</v>
@@ -3142,34 +3136,34 @@
     <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoduisburg.de</v>
+        <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-herford.de</v>
-      </c>
-      <c r="B223" s="1" t="s">
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B224" s="1" t="s">
+        <v>https://www.schrott-ankauf-bonn.de</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.leverkusen-schrott.de</v>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>214</v>
@@ -3178,7 +3172,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>215</v>
@@ -3187,7 +3181,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>216</v>
@@ -3196,7 +3190,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>217</v>
@@ -3205,7 +3199,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>218</v>
@@ -3214,7 +3208,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>219</v>
@@ -3223,7 +3217,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-recklinghausen.de</v>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>220</v>
@@ -3232,7 +3226,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottgummersbach.de</v>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>221</v>
@@ -3241,7 +3235,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottlohmar.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>222</v>
@@ -3250,7 +3244,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottolpe.de</v>
+        <v>https://www.schrottsiegburg.de</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>223</v>
@@ -3259,7 +3253,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottratingen.de</v>
+        <v>https://www.schrottunna.de</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>224</v>
@@ -3268,28 +3262,10 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottsiegburg.de</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="str">
-        <f t="shared" si="4"/>
         <v>https://www.smarttech-elektro.de</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>231</v>
+      <c r="B236" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52DDFC4-81F3-428B-8DBC-19ACC95F7C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2003671-6652-446D-BCA2-C45064D8C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -715,9 +715,6 @@
   </si>
   <si>
     <t>nivontec.de</t>
-  </si>
-  <si>
-    <t>nordstern.gmbh</t>
   </si>
   <si>
     <t>nma-hamburg.de</t>
@@ -1132,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1156,7 @@
         <v>https://www.key.stonepulse.com</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,7 +1165,7 @@
         <v>https://www.kalender.stonepulse.com</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,7 +1174,7 @@
         <v>https://www.todo.stonepulse.com</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1186,12 +1183,12 @@
         <v>https://www.ilamecca.com</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A63" si="1">"https://www." &amp; B6</f>
+        <f t="shared" ref="A6:A62" si="1">"https://www." &amp; B6</f>
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
@@ -1201,16 +1198,16 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.nordstern.gmbh</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>https://www.nma-hamburg.de</v>
+      </c>
+      <c r="B7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.nma-hamburg.de</v>
+        <v>https://www.smarttech-elektro.de</v>
       </c>
       <c r="B8" t="s">
         <v>228</v>
@@ -1218,2054 +1215,2045 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.smarttech-elektro.de</v>
-      </c>
-      <c r="B9" t="s">
+        <f>"https://" &amp; B9</f>
+        <v>https://dr-elrafei.de</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>"https://" &amp; B10</f>
-        <v>https://dr-elrafei.de</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>230</v>
+        <f t="shared" si="1"/>
+        <v>https://www.auto-ankauf-warendorf.de</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-warendorf.de</v>
+        <v>https://www.autoankauf-flensburg.de</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-flensburg.de</v>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <v>https://www.velbert-autoankauf.de</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.velbert-autoankauf.de</v>
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.recklinghausen-auto-ankauf.de</v>
+        <v>https://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-rendsburg.de</v>
+        <v>https://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-kaiserslautern.de</v>
+        <v>https://www.hamburg-auto-ankauf.de</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.hamburg-auto-ankauf.de</v>
+        <v>https://www.mainz-auto.de</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.mainz-auto.de</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>https://www.autoankauf-norderstedt.de</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-norderstedt.de</v>
+        <v>https://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.bad-segeberg-autoankauf.de</v>
+        <v>https://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-ahrensburg.de</v>
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
+        <v>https://www.autowuppertal.de</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autowuppertal.de</v>
+        <v>https://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-langenhagen.de</v>
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
+        <v>https://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-giessen.de</v>
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+        <v>https://www.bremen-auto-ankauf.de</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.bremen-auto-ankauf.de</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>https://www.kfz-ankauf-hamm.de</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
+        <v>https://www.auto-ankauf-fulda.de</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>https://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <v>https://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <v>https://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <v>https://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-butzbach.de</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>https://www.autoankauf-bretten.de</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bretten.de</v>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+        <v>https://www.autoankauf-aurich.de</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-aurich.de</v>
+        <v>https://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+        <v>https://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" ref="A63:A126" si="2">"https://www." &amp; B63</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" ref="A64:A127" si="2">"https://www." &amp; B64</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <v>https://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.unna-auto-ankauf.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwabach.de</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>99</v>
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>100</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <v>https://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" ref="A127:A190" si="3">"https://www." &amp; B127</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
-        <f t="shared" ref="A128:A191" si="3">"https://www." &amp; B128</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohilden.de</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohaan.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-speyer.de</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>149</v>
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>150</v>
+        <v>https://www.leipzig-autoankauf.de</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>https://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.halle-auto-ankauf.de</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>171</v>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>172</v>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.solingen-auto.de</v>
+        <f t="shared" ref="A191:A235" si="4">"https://www." &amp; B191</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
-        <f t="shared" ref="A192:A236" si="4">"https://www." &amp; B192</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoratingen.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoleverkusen.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autobonn.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoduisburg.de</v>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-herford.de</v>
+        <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>211</v>
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.leverkusen-schrott.de</v>
+        <v>https://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-recklinghausen.de</v>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottgummersbach.de</v>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottlohmar.de</v>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottolpe.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottratingen.de</v>
+        <v>https://www.schrottsiegburg.de</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottsiegburg.de</v>
+        <v>https://www.schrottunna.de</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="str">
-        <f t="shared" si="4"/>
         <v>https://www.smarttech-elektro.de</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>229</v>
+      <c r="B235" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2003671-6652-446D-BCA2-C45064D8C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F6B94-FE21-4EDC-924C-AF8EA4A343BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>kfz-ankauf-hamm.de</t>
-  </si>
-  <si>
-    <t>auto-ankauf-fulda.de</t>
   </si>
   <si>
     <t>xn--auto-ankauf-gttingen-gbc.de</t>
@@ -1129,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1144,7 @@
         <v>https://www.amjis.com</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,7 +1153,7 @@
         <v>https://www.key.stonepulse.com</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1162,7 @@
         <v>https://www.kalender.stonepulse.com</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1171,7 @@
         <v>https://www.todo.stonepulse.com</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1183,16 +1180,16 @@
         <v>https://www.ilamecca.com</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A62" si="1">"https://www." &amp; B6</f>
+        <f t="shared" ref="A6:A61" si="1">"https://www." &amp; B6</f>
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1198,7 @@
         <v>https://www.nma-hamburg.de</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1207,7 @@
         <v>https://www.smarttech-elektro.de</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1216,7 @@
         <v>https://dr-elrafei.de</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1405,7 +1402,7 @@
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-fulda.de</v>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -1414,7 +1411,7 @@
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
@@ -1423,7 +1420,7 @@
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
@@ -1432,7 +1429,7 @@
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>https://www.auto-ankauf-euskirchen.de</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -1441,7 +1438,7 @@
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -1450,7 +1447,7 @@
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <v>https://www.ingolstadt-auto-ankauf.de</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -1459,7 +1456,7 @@
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
@@ -1468,7 +1465,7 @@
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
@@ -1477,7 +1474,7 @@
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>https://www.kfz-ankauf-ulm.de</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>28</v>
@@ -1486,7 +1483,7 @@
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
+        <v>https://www.hildesheim-autoankauf.de</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -1495,7 +1492,7 @@
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>30</v>
@@ -1504,7 +1501,7 @@
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>31</v>
@@ -1513,7 +1510,7 @@
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <v>https://www.viersen-auto-ankauf.de</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>32</v>
@@ -1522,7 +1519,7 @@
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>33</v>
@@ -1531,7 +1528,7 @@
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>34</v>
@@ -1540,7 +1537,7 @@
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>https://www.autoankauf-diepholz.de</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>35</v>
@@ -1549,7 +1546,7 @@
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>36</v>
@@ -1558,7 +1555,7 @@
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>37</v>
@@ -1567,7 +1564,7 @@
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>38</v>
@@ -1576,7 +1573,7 @@
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>39</v>
@@ -1585,7 +1582,7 @@
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <v>https://www.berlin-auto-ankauf.de</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>40</v>
@@ -1594,7 +1591,7 @@
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <v>https://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>41</v>
@@ -1603,16 +1600,16 @@
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-butzbach.de</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>https://www.autoankauf-bretten.de</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bretten.de</v>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>43</v>
@@ -1621,7 +1618,7 @@
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+        <v>https://www.autoankauf-aurich.de</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>44</v>
@@ -1630,7 +1627,7 @@
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-aurich.de</v>
+        <v>https://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>45</v>
@@ -1639,16 +1636,16 @@
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+        <v>https://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>47</v>
@@ -1657,7 +1654,7 @@
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>48</v>
@@ -1666,7 +1663,7 @@
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>49</v>
@@ -1675,7 +1672,7 @@
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>50</v>
@@ -1684,7 +1681,7 @@
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>51</v>
@@ -1692,8 +1689,8 @@
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" ref="A62:A125" si="2">"https://www." &amp; B62</f>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>52</v>
@@ -1701,8 +1698,8 @@
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" ref="A63:A126" si="2">"https://www." &amp; B63</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>53</v>
@@ -1711,7 +1708,7 @@
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
@@ -1720,7 +1717,7 @@
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>55</v>
@@ -1729,7 +1726,7 @@
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-geldern.de</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>56</v>
@@ -1738,7 +1735,7 @@
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>57</v>
@@ -1747,7 +1744,7 @@
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>https://www.erkrath-autoankauf.de</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>58</v>
@@ -1756,7 +1753,7 @@
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erkrath-autoankauf.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>59</v>
@@ -1765,7 +1762,7 @@
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.autoankauf-steinborn.de</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>60</v>
@@ -1774,7 +1771,7 @@
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.autoankauf-meisburg.de</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>61</v>
@@ -1783,7 +1780,7 @@
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.autoankauf-birresborn.de</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>62</v>
@@ -1792,7 +1789,7 @@
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>63</v>
@@ -1801,7 +1798,7 @@
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.autoankauf-cochem.de</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>64</v>
@@ -1810,7 +1807,7 @@
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.autoankauf-burghaun.de</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>65</v>
@@ -1819,7 +1816,7 @@
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>66</v>
@@ -1828,7 +1825,7 @@
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>67</v>
@@ -1837,7 +1834,7 @@
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
@@ -1846,7 +1843,7 @@
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>69</v>
@@ -1855,7 +1852,7 @@
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>https://www.autoankauf-finthen.de</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>70</v>
@@ -1864,7 +1861,7 @@
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>71</v>
@@ -1873,7 +1870,7 @@
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>72</v>
@@ -1882,7 +1879,7 @@
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>73</v>
@@ -1891,7 +1888,7 @@
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>74</v>
@@ -1900,7 +1897,7 @@
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>75</v>
@@ -1909,7 +1906,7 @@
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>76</v>
@@ -1918,7 +1915,7 @@
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>77</v>
@@ -1927,7 +1924,7 @@
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>78</v>
@@ -1936,7 +1933,7 @@
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>79</v>
@@ -1945,7 +1942,7 @@
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>80</v>
@@ -1954,7 +1951,7 @@
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>81</v>
@@ -1963,7 +1960,7 @@
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>82</v>
@@ -1972,7 +1969,7 @@
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>83</v>
@@ -1981,7 +1978,7 @@
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>84</v>
@@ -1990,7 +1987,7 @@
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>85</v>
@@ -1999,7 +1996,7 @@
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>86</v>
@@ -2008,7 +2005,7 @@
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>87</v>
@@ -2017,7 +2014,7 @@
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>88</v>
@@ -2026,7 +2023,7 @@
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>89</v>
@@ -2035,7 +2032,7 @@
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>90</v>
@@ -2044,7 +2041,7 @@
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>91</v>
@@ -2053,7 +2050,7 @@
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>92</v>
@@ -2062,7 +2059,7 @@
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>93</v>
@@ -2071,7 +2068,7 @@
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>94</v>
@@ -2080,7 +2077,7 @@
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>95</v>
@@ -2089,7 +2086,7 @@
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>96</v>
@@ -2098,7 +2095,7 @@
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <v>https://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>97</v>
@@ -2107,7 +2104,7 @@
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.unna-auto-ankauf.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>98</v>
@@ -2116,25 +2113,25 @@
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwabach.de</v>
-      </c>
-      <c r="B109" s="1" t="s">
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B110" s="3" t="s">
+        <v>https://www.kleve-auto-ankauf.de</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <v>https://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>101</v>
@@ -2143,7 +2140,7 @@
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>102</v>
@@ -2152,7 +2149,7 @@
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>103</v>
@@ -2161,7 +2158,7 @@
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>104</v>
@@ -2170,7 +2167,7 @@
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.autoankauf-merzig.de</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>105</v>
@@ -2179,7 +2176,7 @@
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>106</v>
@@ -2188,7 +2185,7 @@
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.mayen-autoankauf.de</v>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>107</v>
@@ -2197,7 +2194,7 @@
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>108</v>
@@ -2206,7 +2203,7 @@
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
+        <v>https://www.auto-ankauf-daun.de</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>109</v>
@@ -2215,7 +2212,7 @@
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>110</v>
@@ -2224,7 +2221,7 @@
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>111</v>
@@ -2233,7 +2230,7 @@
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <v>https://www.autoankauf-helmstedt.de</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>112</v>
@@ -2242,7 +2239,7 @@
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>113</v>
@@ -2251,7 +2248,7 @@
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>114</v>
@@ -2260,7 +2257,7 @@
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>115</v>
@@ -2268,8 +2265,8 @@
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" ref="A126:A189" si="3">"https://www." &amp; B126</f>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>116</v>
@@ -2277,8 +2274,8 @@
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
-        <f t="shared" ref="A127:A190" si="3">"https://www." &amp; B127</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>117</v>
@@ -2287,7 +2284,7 @@
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>118</v>
@@ -2296,7 +2293,7 @@
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-northeim.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>119</v>
@@ -2305,7 +2302,7 @@
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>120</v>
@@ -2314,7 +2311,7 @@
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>121</v>
@@ -2323,7 +2320,7 @@
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>122</v>
@@ -2332,7 +2329,7 @@
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>123</v>
@@ -2341,7 +2338,7 @@
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>124</v>
@@ -2350,7 +2347,7 @@
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>125</v>
@@ -2359,7 +2356,7 @@
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>126</v>
@@ -2368,7 +2365,7 @@
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>127</v>
@@ -2377,7 +2374,7 @@
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>128</v>
@@ -2386,7 +2383,7 @@
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohilden.de</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>129</v>
@@ -2395,7 +2392,7 @@
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>130</v>
@@ -2404,7 +2401,7 @@
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>131</v>
@@ -2413,7 +2410,7 @@
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>132</v>
@@ -2422,7 +2419,7 @@
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>133</v>
@@ -2431,7 +2428,7 @@
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohaan.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>134</v>
@@ -2440,7 +2437,7 @@
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>135</v>
@@ -2449,7 +2446,7 @@
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>136</v>
@@ -2458,7 +2455,7 @@
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>137</v>
@@ -2467,7 +2464,7 @@
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <v>https://www.autoankauf-gifhorn.de</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>138</v>
@@ -2476,7 +2473,7 @@
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>139</v>
@@ -2485,7 +2482,7 @@
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>140</v>
@@ -2494,7 +2491,7 @@
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>141</v>
@@ -2503,7 +2500,7 @@
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>142</v>
@@ -2512,7 +2509,7 @@
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>143</v>
@@ -2521,7 +2518,7 @@
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>144</v>
@@ -2530,7 +2527,7 @@
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>145</v>
@@ -2539,7 +2536,7 @@
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>146</v>
@@ -2548,7 +2545,7 @@
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>147</v>
@@ -2557,7 +2554,7 @@
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>148</v>
@@ -2566,25 +2563,25 @@
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-speyer.de</v>
-      </c>
-      <c r="B159" s="1" t="s">
+        <v>https://www.auto-ankauf-witten.de</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B160" s="3" t="s">
+        <v>https://www.leipzig-autoankauf.de</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>https://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>151</v>
@@ -2593,7 +2590,7 @@
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>152</v>
@@ -2602,7 +2599,7 @@
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>153</v>
@@ -2611,7 +2608,7 @@
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>154</v>
@@ -2620,7 +2617,7 @@
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>155</v>
@@ -2629,7 +2626,7 @@
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>156</v>
@@ -2638,7 +2635,7 @@
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>157</v>
@@ -2647,7 +2644,7 @@
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>158</v>
@@ -2656,7 +2653,7 @@
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>159</v>
@@ -2665,7 +2662,7 @@
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>160</v>
@@ -2674,7 +2671,7 @@
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>161</v>
@@ -2683,7 +2680,7 @@
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>162</v>
@@ -2692,7 +2689,7 @@
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>163</v>
@@ -2701,7 +2698,7 @@
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>164</v>
@@ -2710,7 +2707,7 @@
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>165</v>
@@ -2719,7 +2716,7 @@
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>166</v>
@@ -2728,7 +2725,7 @@
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>167</v>
@@ -2737,7 +2734,7 @@
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>168</v>
@@ -2746,7 +2743,7 @@
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>169</v>
@@ -2755,7 +2752,7 @@
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>170</v>
@@ -2764,25 +2761,25 @@
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.halle-auto-ankauf.de</v>
-      </c>
-      <c r="B181" s="1" t="s">
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B182" s="3" t="s">
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>173</v>
@@ -2791,7 +2788,7 @@
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>174</v>
@@ -2800,7 +2797,7 @@
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>175</v>
@@ -2809,7 +2806,7 @@
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>176</v>
@@ -2818,7 +2815,7 @@
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>177</v>
@@ -2827,7 +2824,7 @@
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>178</v>
@@ -2836,7 +2833,7 @@
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>179</v>
@@ -2844,8 +2841,8 @@
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.solingen-auto.de</v>
+        <f t="shared" ref="A190:A234" si="4">"https://www." &amp; B190</f>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>180</v>
@@ -2853,8 +2850,8 @@
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
-        <f t="shared" ref="A191:A235" si="4">"https://www." &amp; B191</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>181</v>
@@ -2863,7 +2860,7 @@
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>182</v>
@@ -2872,7 +2869,7 @@
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>183</v>
@@ -2881,7 +2878,7 @@
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>184</v>
@@ -2890,7 +2887,7 @@
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>185</v>
@@ -2899,7 +2896,7 @@
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>186</v>
@@ -2908,7 +2905,7 @@
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>187</v>
@@ -2917,7 +2914,7 @@
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoratingen.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>188</v>
@@ -2926,7 +2923,7 @@
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>189</v>
@@ -2935,7 +2932,7 @@
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>190</v>
@@ -2944,7 +2941,7 @@
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>191</v>
@@ -2953,7 +2950,7 @@
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>192</v>
@@ -2962,7 +2959,7 @@
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>193</v>
@@ -2971,7 +2968,7 @@
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>194</v>
@@ -2980,7 +2977,7 @@
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoleverkusen.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>195</v>
@@ -2989,7 +2986,7 @@
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>196</v>
@@ -2998,7 +2995,7 @@
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>197</v>
@@ -3007,7 +3004,7 @@
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>198</v>
@@ -3016,7 +3013,7 @@
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>199</v>
@@ -3025,7 +3022,7 @@
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>200</v>
@@ -3034,7 +3031,7 @@
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>201</v>
@@ -3043,7 +3040,7 @@
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>202</v>
@@ -3052,7 +3049,7 @@
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autobonn.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>203</v>
@@ -3061,7 +3058,7 @@
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>204</v>
@@ -3070,7 +3067,7 @@
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>205</v>
@@ -3079,7 +3076,7 @@
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>206</v>
@@ -3088,7 +3085,7 @@
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>207</v>
@@ -3097,7 +3094,7 @@
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>208</v>
@@ -3106,7 +3103,7 @@
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoduisburg.de</v>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>209</v>
@@ -3115,25 +3112,25 @@
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-herford.de</v>
+        <v>https://www.dortmund-auto-ankauf.de</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B221" s="1" t="s">
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.leverkusen-schrott.de</v>
+        <v>https://www.schrott-ankauf-bonn.de</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>212</v>
@@ -3142,7 +3139,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>213</v>
@@ -3151,7 +3148,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.schrott-ankauf-essen.de</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>214</v>
@@ -3160,7 +3157,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>215</v>
@@ -3169,7 +3166,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>216</v>
@@ -3178,7 +3175,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
+        <v>https://www.schrott-recklinghausen.de</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>217</v>
@@ -3187,7 +3184,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrott-recklinghausen.de</v>
+        <v>https://www.schrottgummersbach.de</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>218</v>
@@ -3196,7 +3193,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottgummersbach.de</v>
+        <v>https://www.schrottlohmar.de</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>219</v>
@@ -3205,7 +3202,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottlohmar.de</v>
+        <v>https://www.schrottolpe.de</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>220</v>
@@ -3214,7 +3211,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottolpe.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>221</v>
@@ -3223,7 +3220,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottratingen.de</v>
+        <v>https://www.schrottsiegburg.de</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>222</v>
@@ -3232,7 +3229,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottsiegburg.de</v>
+        <v>https://www.schrottunna.de</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>223</v>
@@ -3241,19 +3238,10 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="str">
-        <f t="shared" si="4"/>
         <v>https://www.smarttech-elektro.de</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>228</v>
+      <c r="B234" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F6B94-FE21-4EDC-924C-AF8EA4A343BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555104DE-925F-47E5-9078-34ADD128A27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -105,24 +105,15 @@
     <t>xn--auto-lneburg-ilb.de</t>
   </si>
   <si>
-    <t>auto-ankauf-euskirchen.de</t>
-  </si>
-  <si>
     <t>rostock-autoankauf.de</t>
   </si>
   <si>
-    <t>ingolstadt-auto-ankauf.de</t>
-  </si>
-  <si>
     <t>xn--kln-auto-ankauf-8sb.de</t>
   </si>
   <si>
     <t>xn--hxter-autoankauf-mwb.de</t>
   </si>
   <si>
-    <t>kfz-ankauf-ulm.de</t>
-  </si>
-  <si>
     <t>hildesheim-autoankauf.de</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>gummersbach-autoankauf.de</t>
   </si>
   <si>
-    <t>viersen-auto-ankauf.de</t>
-  </si>
-  <si>
     <t>siegen-autoankauf.de</t>
   </si>
   <si>
@@ -733,13 +721,85 @@
   </si>
   <si>
     <t>todo.stonepulse.com</t>
+  </si>
+  <si>
+    <t>autoankauf-wismar.de</t>
+  </si>
+  <si>
+    <t>autoankauf-hanau.de</t>
+  </si>
+  <si>
+    <t>autoankauf-celle.de</t>
+  </si>
+  <si>
+    <t>autoankauf-saarlouis.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-kiel.de</t>
+  </si>
+  <si>
+    <t>hannover-autoankauf.de</t>
+  </si>
+  <si>
+    <t>goslar-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>cuxhaven-autoankauf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-gladbeck.de</t>
+  </si>
+  <si>
+    <t>arnsberg-autoankauf.de</t>
+  </si>
+  <si>
+    <t>maintal-autoankauf.de</t>
+  </si>
+  <si>
+    <t>oberhausen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>remscheid-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>lünen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>autoankauf-düren.de</t>
+  </si>
+  <si>
+    <t>heinsberg-autoankauf.de</t>
+  </si>
+  <si>
+    <t>bottrop-autoankauf.de</t>
+  </si>
+  <si>
+    <t>auto-ankauf-broken.de</t>
+  </si>
+  <si>
+    <t>dülmen-autoankauf.de</t>
+  </si>
+  <si>
+    <t>hagen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>neuss-autoankauf.de</t>
+  </si>
+  <si>
+    <t>montabaur-autoankauf.de</t>
+  </si>
+  <si>
+    <t>gotha-autoankauf.de</t>
+  </si>
+  <si>
+    <t>nordhausen-auto-ankauf.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,8 +820,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,12 +842,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -798,11 +870,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -810,8 +913,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1126,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1254,7 @@
         <v>https://www.amjis.com</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1263,7 @@
         <v>https://www.key.stonepulse.com</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,7 +1272,7 @@
         <v>https://www.kalender.stonepulse.com</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,7 +1281,7 @@
         <v>https://www.todo.stonepulse.com</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,16 +1290,16 @@
         <v>https://www.ilamecca.com</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A61" si="1">"https://www." &amp; B6</f>
+        <f t="shared" ref="A6:A8" si="1">"https://www." &amp; B6</f>
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,16 +1308,16 @@
         <v>https://www.nma-hamburg.de</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
+        <f>"https://www." &amp; B8</f>
         <v>https://www.smarttech-elektro.de</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1215,67 +1325,67 @@
         <f>"https://" &amp; B9</f>
         <v>https://dr-elrafei.de</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>228</v>
+      <c r="B9" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-warendorf.de</v>
+        <f>"https://www." &amp; B10</f>
+        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-flensburg.de</v>
+        <f t="shared" ref="A11:A74" si="2">"https://www." &amp; B11</f>
+        <v>https://www.autowuppertal.de</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-ahrensburg.de</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.velbert-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-norderstedt.de</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.recklinghausen-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.hamburg-auto-ankauf.de</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-rendsburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.recklinghausen-auto-ankauf.de</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://www.autoankauf-kaiserslautern.de</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1284,1964 +1394,2135 @@
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.hamburg-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-rendsburg.de</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.mainz-auto.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-wismar.de</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-norderstedt.de</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>https://www.xn--auto-ankauf-osnabrck-6ec.de</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.bad-segeberg-autoankauf.de</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-warendorf.de</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-ahrensburg.de</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-flensburg.de</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-mnster-y6b.de</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-hanau.de</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autowuppertal.de</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-celle.de</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-langenhagen.de</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-saarlouis.de</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-kiel.de</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-giessen.de</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-hamburg.de</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>https://www.berlin-auto-ankauf.de</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.bremen-auto-ankauf.de</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>https://www.dortmund-auto-ankauf.de</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-baden-baden.de</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bretten.de</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-aschaffenburg.de</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-hersfeld.de</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-euskirchen.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-butzbach.de</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.rostock-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-aurich.de</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.ingolstadt-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.braunschweig-auto-ankauf.de</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-cloppenburg.de</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-coesfeld.de</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-ulm.de</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-schwerin.de</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-emsland.de</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.viersen-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.hannover-autoankauf.de</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.oldenburg-auto-ankauf.de</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-uelzen.de</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-diepholz.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-oldesloe.de</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-dinslaken.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-itzehoe.de</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.frankfurt-auto.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.kfz-ankauf-kiel.de</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-pinneberg.de</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.kfz-ankauf-hamburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-straubing.de</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.berlin-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-bad-nauheim.de</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-butzbach.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-schwalmstadt.de</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bretten.de</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-diepholz.de</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.xn--autoankauf-ldenscheid-kic.de</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-gifhorn.de</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-aurich.de</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>https://www.goslar-auto-ankauf.de</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-cloppenburg.de</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>https://www.autoankauf-helmstedt.de</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-aschaffenburg.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-meppen.de</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-baden-baden.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-bielefeld.de</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.auto-ankauf-coesfeld.de</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-dinslaken.de</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.autoankauf-bad-hersfeld.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.bremen-auto-ankauf.de</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.braunschweig-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.frankfurt-auto.de</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.auto-ankauf-giessen.de</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" ref="A62:A125" si="2">"https://www." &amp; B62</f>
-        <v>https://www.kfz-ankauf-fulda.de</v>
+        <f t="shared" si="2"/>
+        <v>https://www.cuxhaven-autoankauf.de</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
+        <v>https://www.autoankauf-langenhagen.de</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.xn--kfz-ankauf-dsseldorf-0ec.de</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.dormagen-autoankauf.de</v>
+        <v>https://www.xn--auto-ankauf-gtersloh-1ec.de</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-geldern.de</v>
+        <v>https://www.velbert-autoankauf.de</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
+        <v>https://www.bad-segeberg-autoankauf.de</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erkrath-autoankauf.de</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>https://www.xn--neumnster-auto-ankauf-cic.de</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.kfz-ankauf-herne.de</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.kfz-ankauf-bochum.de</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-birresborn.de</v>
+        <v>https://www.castrop-rauxel-autoankauf.de</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.auto-ankauf-witten.de</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.auto-ankauf-gladbeck.de</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <f t="shared" ref="A75:A138" si="3">"https://www." &amp; B75</f>
+        <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-wesel.de</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>https://www.erkrath-autoankauf.de</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autohaan.de</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.unna-auto-ankauf.de</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwalmstadt.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.solingen-auto.de</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.wermelskirchen-autoankauf.de</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autohilden.de</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-krefeld24.de</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-kempen.de</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.dormagen-autoankauf.de</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoleverkusen.de</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-mainburg.de</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-geldern.de</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.arnsberg-autoankauf.de</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-siegburg.de</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittlich.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.wiesbaden-auto-ankauf.de</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.frankfurt-am-main-autoankauf.de</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.maintal-autoankauf.de</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-dietzenbach.de</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-fulda.de</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-griesheim.de</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-homberg.de</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.oberhausen-auto-ankauf.de</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.remscheid-auto-ankauf.de</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.lünen-autoankauf.de</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-passau.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-düren.de</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.heinsberg-autoankauf.de</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-uelzen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.bottrop-autoankauf.de</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-broken.de</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-meppen.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.dülmen-autoankauf.de</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.unna-auto-ankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.hagen-auto-ankauf.de</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwabach.de</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>https://www.neuss-autoankauf.de</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-emsland.de</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-dietzenbach.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>https://www.hildesheim-autoankauf.de</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-merzig.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.mayen-autoankauf.de</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>https://www.mainz-auto.de</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.oldenburg-auto-ankauf.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>https://www.chemnitz-autoankauf.de</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-schwerin.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.autoankauf-helmstedt.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-weilburg.de</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.autoankauf-fritzlar.de</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
-        <f t="shared" ref="A126:A189" si="3">"https://www." &amp; B126</f>
-        <v>https://www.autoankauf-griesheim.de</v>
+        <f t="shared" si="3"/>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-northeim.de</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>118</v>
+        <v>https://www.autoankauf-hungen.de</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-murnau.de</v>
+        <v>https://www.siegen-autoankauf.de</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bautzen.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autohilden.de</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>128</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <f t="shared" ref="A139:A202" si="4">"https://www." &amp; B139</f>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-pinneberg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autohaan.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-oldesloe.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bielefeld.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-kiel.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-gifhorn.de</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>138</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-nauheim.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.wermelskirchen-autoankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-neubrandenburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.montabaur-autoankauf.de</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-speyer.de</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>148</v>
+        <f t="shared" si="4"/>
+        <v>https://www.mayen-autoankauf.de</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-witten.de</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>149</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gotha-autoankauf.de</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.nordhausen-auto-ankauf.de</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-siegburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-straubing.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>158</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-merzig.de</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-itzehoe.de</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>159</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-burghaun.de</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>160</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-finthen.de</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-kempen.de</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>162</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-gerolstein.de</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>163</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-daun.de</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.castrop-rauxel-autoankauf.de</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>164</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-birresborn.de</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>165</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-cochem.de</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>166</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-meisburg.de</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>167</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-steinborn.de</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-soest.de</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>168</v>
+        <f t="shared" si="4"/>
+        <v>https://www.kfz-ankauf-mainz.de</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>169</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-wernigerode.de</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.halle-auto-ankauf.de</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>170</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>171</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>172</v>
+        <f t="shared" si="4"/>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>174</v>
+        <f t="shared" si="4"/>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B184" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>175</v>
+        <f t="shared" si="4"/>
+        <v>https://www.erfurt-autoankauf.de</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-zwickau.de</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>176</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-hildburghausen.de</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoankauf-schleswig.de</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>177</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-sinsheim.de</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-minden.de</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>178</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-sangerhausen.de</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.solingen-auto.de</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>179</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-eppingen.de</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
-        <f t="shared" ref="A190:A234" si="4">"https://www." &amp; B190</f>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>181</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-wrzburg-x6b.de</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>182</v>
+        <v>https://www.autoankauf-mosbach.de</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.frankfurt-am-main-autoankauf.de</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>183</v>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-mnster-e3b.de</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>184</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-krefeld24.de</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>185</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>186</v>
+        <v>https://www.autoankauf-steinburg.de</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoratingen.de</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>187</v>
+        <v>https://www.halle-auto-ankauf.de</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>188</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-wesel.de</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>189</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>190</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>191</v>
+        <v>https://www.autoankauf-stendal.de</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>192</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-herne.de</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>193</v>
+        <f t="shared" ref="A203:A253" si="5">"https://www." &amp; B203</f>
+        <v>https://www.autoankauf-offenburg.de</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autoleverkusen.de</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>194</v>
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-forchheim.de</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-bochum.de</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>195</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-ratzeburg.de</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>196</v>
+        <f t="shared" si="5"/>
+        <v>https://www.herrenberg-autoankauf.de</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>197</v>
+        <f t="shared" si="5"/>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-gelsenkirchen24.de</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>198</v>
+        <f t="shared" si="5"/>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>199</v>
+        <f t="shared" si="5"/>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.wiesbaden-auto-ankauf.de</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.xn--mnster-auto-ankauf-m6b.de</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>201</v>
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-aalen.de</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autobonn.de</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>202</v>
+        <f t="shared" si="5"/>
+        <v>https://www.leipzig-autoankauf.de</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>203</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-schleswig.de</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>204</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-preetz.de</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>205</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-schwabach.de</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>206</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-altenburg.de</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>207</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-zwickau.de</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autoduisburg.de</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>208</v>
+        <f t="shared" si="5"/>
+        <v>https://www.freiburg-auto-ankauf.de</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-herford.de</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>209</v>
+        <f t="shared" si="5"/>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.dortmund-auto-ankauf.de</v>
-      </c>
-      <c r="B220" s="1" t="s">
+        <f t="shared" si="5"/>
+        <v>https://www.kfz-ankauf-dresden.de</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.freiberg-auto-ankauf.de</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-memmingen.de</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-konstanz.de</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-konstanz.de</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-amberg.de</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-odelzhausen.de</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-mainburg.de</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-dachau.de</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-landshut.de</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-bautzen.de</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-murnau.de</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-passau.de</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-traunstein.de</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-siegsdorf.de</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrott-ankauf-bonn.de</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrott-ankauf-duisburg.de</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrott-ankauf-essen.de</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.leverkusen-schrott.de</v>
-      </c>
-      <c r="B221" s="4" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
-      </c>
-      <c r="B222" s="4" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
-      </c>
-      <c r="B223" s="4" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrott-recklinghausen.de</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
-      </c>
-      <c r="B224" s="4" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrottgummersbach.de</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
-      </c>
-      <c r="B225" s="4" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrottlohmar.de</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
-      </c>
-      <c r="B226" s="4" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrottolpe.de</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrott-recklinghausen.de</v>
-      </c>
-      <c r="B227" s="4" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrottratingen.de</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottgummersbach.de</v>
-      </c>
-      <c r="B228" s="4" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrottsiegburg.de</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottlohmar.de</v>
-      </c>
-      <c r="B229" s="4" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.schrottunna.de</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottolpe.de</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottratingen.de</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottsiegburg.de</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.smarttech-elektro.de</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555104DE-925F-47E5-9078-34ADD128A27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA79CF2-B7BB-4BF7-B2BA-ABED7736793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -754,36 +754,6 @@
   </si>
   <si>
     <t>maintal-autoankauf.de</t>
-  </si>
-  <si>
-    <t>oberhausen-auto-ankauf.de</t>
-  </si>
-  <si>
-    <t>remscheid-auto-ankauf.de</t>
-  </si>
-  <si>
-    <t>lünen-autoankauf.de</t>
-  </si>
-  <si>
-    <t>autoankauf-düren.de</t>
-  </si>
-  <si>
-    <t>heinsberg-autoankauf.de</t>
-  </si>
-  <si>
-    <t>bottrop-autoankauf.de</t>
-  </si>
-  <si>
-    <t>auto-ankauf-broken.de</t>
-  </si>
-  <si>
-    <t>dülmen-autoankauf.de</t>
-  </si>
-  <si>
-    <t>hagen-auto-ankauf.de</t>
-  </si>
-  <si>
-    <t>neuss-autoankauf.de</t>
   </si>
   <si>
     <t>montabaur-autoankauf.de</t>
@@ -1236,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1265,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A8" si="1">"https://www." &amp; B6</f>
+        <f t="shared" ref="A6:A7" si="1">"https://www." &amp; B6</f>
         <v>https://www.nivontec.de</v>
       </c>
       <c r="B6" t="s">
@@ -1916,7 +1886,7 @@
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" ref="A75:A138" si="3">"https://www." &amp; B75</f>
+        <f t="shared" ref="A75:A128" si="3">"https://www." &amp; B75</f>
         <v>https://www.autoduisburg.de</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2133,1395 +2103,1305 @@
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.oberhausen-auto-ankauf.de</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>240</v>
+        <v>https://www.kfz-ankauf-augsburg.de</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.remscheid-auto-ankauf.de</v>
+        <v>https://www.rostock-autoankauf.de</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.lünen-autoankauf.de</v>
+        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-düren.de</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>243</v>
+        <v>https://www.hildesheim-autoankauf.de</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.heinsberg-autoankauf.de</v>
+        <v>https://www.xn--auto-lneburg-ilb.de</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.bottrop-autoankauf.de</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>245</v>
+        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-broken.de</v>
+        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.dülmen-autoankauf.de</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>247</v>
+        <v>https://www.mainz-auto.de</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.hagen-auto-ankauf.de</v>
+        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.neuss-autoankauf.de</v>
+        <v>https://www.chemnitz-autoankauf.de</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-augsburg.de</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>27</v>
+        <v>https://www.auto-ankauf-darmstadt.de</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.rostock-autoankauf.de</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>23</v>
+        <v>https://www.autoankauf-dillenburg.de</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--auto-ankauf-gttingen-gbc.de</v>
+        <v>https://www.kfz-ankauf-marburg.de</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.hildesheim-autoankauf.de</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>26</v>
+        <v>https://www.autoankauf-weilburg.de</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--auto-lneburg-ilb.de</v>
+        <v>https://www.autoankauf-bad-wildungen.de</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--kln-auto-ankauf-8sb.de</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>24</v>
+        <v>https://www.autoankauf-fritzlar.de</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--hxter-autoankauf-mwb.de</v>
+        <v>https://www.auto-ankauf-butzbach.de</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.mainz-auto.de</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>8</v>
+        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.xn--auto-ankauf-saarbrcken-9lc.de</v>
+        <v>https://www.autoankauf-homberg.de</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.chemnitz-autoankauf.de</v>
+        <v>https://www.autoankauf-hungen.de</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-darmstadt.de</v>
+        <v>https://www.gummersbach-autoankauf.de</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-dillenburg.de</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>167</v>
+        <v>https://www.siegen-autoankauf.de</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-marburg.de</v>
+        <v>https://www.kfz-ankauf-hamm.de</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-weilburg.de</v>
+        <v>https://www.auto-ankauf-ahaus.de</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-bad-wildungen.de</v>
+        <v>https://www.kfz-ankauf-nettetal.de</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-fritzlar.de</v>
+        <v>https://www.auto-ankauf-soest.de</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-butzbach.de</v>
+        <v>https://www.auto-ankauf-steinfurt.de</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.gebrauchtwagen-ankauf-kassel.de</v>
+        <v>https://www.kleve-auto-ankauf.de</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-homberg.de</v>
+        <v>https://www.autoratingen.de</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.autoankauf-hungen.de</v>
+        <v>https://www.auto-ankauf-lippstadt.de</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.gummersbach-autoankauf.de</v>
+        <f t="shared" ref="A129:A192" si="4">"https://www." &amp; B129</f>
+        <v>https://www.autoankauf-northeim.de</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.siegen-autoankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-hamm.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-duderstadt.de</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-ahaus.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kfz-ankauf-nettetal.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.salzgitter-autoankauf.de</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-soest.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-wittmund.de</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-steinfurt.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-peine.de</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.kleve-auto-ankauf.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-rheine.de</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.autoratingen.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autobonn.de</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.auto-ankauf-lippstadt.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.auto-ankauf-heinsberg.de</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
-        <f t="shared" ref="A139:A202" si="4">"https://www." &amp; B139</f>
-        <v>https://www.autoankauf-northeim.de</v>
+        <f t="shared" si="4"/>
+        <v>https://www.autoankauf-brilon.de</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-hannover.de</v>
+        <v>https://www.kfz-ankauf-bielefeld.de</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-duderstadt.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-osterholz-scharmbeck.de</v>
+        <v>https://www.auto-ankauf-herford.de</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.salzgitter-autoankauf.de</v>
+        <v>https://www.autoankauf-warburg.de</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-wittmund.de</v>
+        <v>https://www.auto-ankauf-minden.de</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-peine.de</v>
+        <v>https://www.auto-ankauf-altenkirchen.de</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-rheine.de</v>
+        <v>https://www.auto-ankauf-neuwied.de</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autobonn.de</v>
+        <v>https://www.montabaur-autoankauf.de</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-heinsberg.de</v>
+        <v>https://www.mayen-autoankauf.de</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-brilon.de</v>
+        <v>https://www.gotha-autoankauf.de</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-bielefeld.de</v>
+        <v>https://www.nordhausen-auto-ankauf.de</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-paderborn.de</v>
+        <v>https://www.autoankauf-speyer.de</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-herford.de</v>
+        <v>https://www.autoankauf-wittlich.de</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-warburg.de</v>
+        <v>https://www.kfz-ankauf-trier.de</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-minden.de</v>
+        <v>https://www.autoankauf-pforzheim.de</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-altenkirchen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-neuwied.de</v>
+        <v>https://www.kfz-ankauf-eisenach.de</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.montabaur-autoankauf.de</v>
+        <v>https://www.wolfsburg-autoankauf.de</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.mayen-autoankauf.de</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>102</v>
+        <v>https://www.autoankauf-merzig.de</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gotha-autoankauf.de</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>251</v>
+        <v>https://www.autoankauf-burghaun.de</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.nordhausen-auto-ankauf.de</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>252</v>
+        <v>https://www.autoankauf-finthen.de</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-speyer.de</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>144</v>
+        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-wittlich.de</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>78</v>
+        <v>https://www.autoankauf-gerolstein.de</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-trier.de</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>104</v>
+        <v>https://www.auto-ankauf-daun.de</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-pforzheim.de</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>135</v>
+        <v>https://www.autoankauf-birresborn.de</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-heilbronn.de</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>177</v>
+        <v>https://www.autoankauf-cochem.de</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-eisenach.de</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>49</v>
+        <v>https://www.autoankauf-meisburg.de</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.wolfsburg-autoankauf.de</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>140</v>
+        <v>https://www.autoankauf-steinborn.de</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-merzig.de</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>101</v>
+        <v>https://www.kfz-ankauf-mainz.de</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-burghaun.de</v>
+        <v>https://www.autoankauf-wernigerode.de</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-finthen.de</v>
+        <v>https://www.autoankauf-bad-salzungen.de</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-mainz.de</v>
+        <v>https://www.autoankauf-bad-kissingen.de</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-gerolstein.de</v>
+        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-daun.de</v>
+        <v>https://www.auto-ankauf-miltenberg.de</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-birresborn.de</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>58</v>
+        <v>https://www.schweinfurt-auto-ankauf.de</v>
+      </c>
+      <c r="B174" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-cochem.de</v>
+        <v>https://www.erfurt-autoankauf.de</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-meisburg.de</v>
+        <v>https://www.autoankauf-hildburghausen.de</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-steinborn.de</v>
+        <v>https://www.autoankauf-sinsheim.de</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.kfz-ankauf-mainz.de</v>
+        <v>https://www.autoankauf-sangerhausen.de</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-wernigerode.de</v>
+        <v>https://www.auto-ankauf-eppingen.de</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-bad-salzungen.de</v>
+        <v>https://www.auto-ankauf-karlsruhe.de</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-bad-kissingen.de</v>
+        <v>https://www.autoankauf-karlsbad.de</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.xn--saarbrcken-gebrauchtwagenankauf-tid.de</v>
+        <v>https://www.autoankauf-mosbach.de</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-miltenberg.de</v>
+        <v>https://www.auto-ankauf-magdeburg.de</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.schweinfurt-auto-ankauf.de</v>
-      </c>
-      <c r="B184" t="s">
-        <v>168</v>
+        <v>https://www.auto-ankauf-bamberg.de</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.erfurt-autoankauf.de</v>
+        <v>https://www.auto-ankauf-ludwigsburg.de</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-hildburghausen.de</v>
+        <v>https://www.autoankauf-steinburg.de</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-sinsheim.de</v>
+        <v>https://www.halle-auto-ankauf.de</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-sangerhausen.de</v>
+        <v>https://www.autoankauf-halle-saale.de</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-eppingen.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-karlsruhe.de</v>
+        <v>https://www.stuttgart-auto-ankauf.de</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-karlsbad.de</v>
+        <v>https://www.autoankauf-stendal.de</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="4"/>
-        <v>https://www.autoankauf-mosbach.de</v>
+        <v>https://www.autoankauf-bad-segeberg.de</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-magdeburg.de</v>
+        <f t="shared" ref="A193:A243" si="5">"https://www." &amp; B193</f>
+        <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-bamberg.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-forchheim.de</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.auto-ankauf-ludwigsburg.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-ratzeburg.de</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autoankauf-steinburg.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.herrenberg-autoankauf.de</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.halle-auto-ankauf.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autoankauf-halle-saale.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.kfz-ankauf-reutlingen.de</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.gebrauchtwagen-ankauf-stuttgart.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.stuttgart-auto-ankauf.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autoankauf-stendal.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.auto-ankauf-aalen.de</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
-        <f t="shared" si="4"/>
-        <v>https://www.autoankauf-bad-segeberg.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.leipzig-autoankauf.de</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
-        <f t="shared" ref="A203:A253" si="5">"https://www." &amp; B203</f>
-        <v>https://www.autoankauf-offenburg.de</v>
+        <f t="shared" si="5"/>
+        <v>https://www.autoankauf-schleswig.de</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-forchheim.de</v>
+        <v>https://www.autoankauf-preetz.de</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-ratzeburg.de</v>
+        <v>https://www.autoankauf-schwabach.de</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.herrenberg-autoankauf.de</v>
+        <v>https://www.autoankauf-altenburg.de</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.xn--autoankauf-tbingen-x6b.de</v>
+        <v>https://www.autoankauf-zwickau.de</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.kfz-ankauf-reutlingen.de</v>
+        <v>https://www.freiburg-auto-ankauf.de</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.xn--autoankauf-gppingen-16b.de</v>
+        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.xn--kfz-ankauf-nrnberg-x6b.de</v>
+        <v>https://www.kfz-ankauf-dresden.de</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-aalen.de</v>
+        <v>https://www.freiberg-auto-ankauf.de</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.leipzig-autoankauf.de</v>
+        <v>https://www.kfz-ankauf-regensburg.de</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-schleswig.de</v>
+        <v>https://www.auto-ankauf-memmingen.de</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-preetz.de</v>
+        <v>https://www.auto-ankauf-ravensburg.de</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-schwabach.de</v>
+        <v>https://www.autoankauf-pfaffenhofen.de</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-altenburg.de</v>
+        <v>https://www.autoankauf-konstanz.de</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-zwickau.de</v>
+        <v>https://www.auto-ankauf-konstanz.de</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.freiburg-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-amberg.de</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.gebrauchtwagen-ankauf-ulm.de</v>
+        <v>https://www.autoankauf-odelzhausen.de</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.kfz-ankauf-dresden.de</v>
+        <v>https://www.autoankauf-mainburg.de</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.freiberg-auto-ankauf.de</v>
+        <v>https://www.auto-ankauf-dachau.de</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.kfz-ankauf-regensburg.de</v>
+        <v>https://www.auto-ankauf-landshut.de</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-memmingen.de</v>
+        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-ravensburg.de</v>
+        <v>https://www.autoankauf-bautzen.de</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-pfaffenhofen.de</v>
+        <v>https://www.auto-ankauf-deggendorf.de</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-konstanz.de</v>
+        <v>https://www.autoankauf-murnau.de</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-konstanz.de</v>
+        <v>https://www.autoankauf-pfarrkirchen.de</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-amberg.de</v>
+        <v>https://www.auto-ankauf-passau.de</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-odelzhausen.de</v>
+        <v>https://www.auto-ankauf-traunstein.de</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-mainburg.de</v>
+        <v>https://www.autoankauf-siegsdorf.de</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-dachau.de</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.leverkusen-schrott.de</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-landshut.de</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrott-ankauf-bonn.de</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.xn--mnchen-auto-ankauf-m6b.de</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrott-ankauf-duisburg.de</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-bautzen.de</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrott-ankauf-essen.de</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-deggendorf.de</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-murnau.de</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrott-ankauf-wuppertal.de</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-pfarrkirchen.de</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrott-recklinghausen.de</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-passau.de</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrottgummersbach.de</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.auto-ankauf-traunstein.de</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>https://www.schrottlohmar.de</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.autoankauf-siegsdorf.de</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>62</v>
+        <v>https://www.schrottolpe.de</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.leverkusen-schrott.de</v>
+        <v>https://www.schrottratingen.de</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.schrott-ankauf-bonn.de</v>
+        <v>https://www.schrottsiegburg.de</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f t="shared" si="5"/>
-        <v>https://www.schrott-ankauf-duisburg.de</v>
+        <v>https://www.schrottunna.de</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrott-ankauf-essen.de</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrott-ankauf-gelsenkirchen.de</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrott-ankauf-wuppertal.de</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrott-recklinghausen.de</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrottgummersbach.de</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrottlohmar.de</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrottolpe.de</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrottratingen.de</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrottsiegburg.de</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="str">
-        <f t="shared" si="5"/>
-        <v>https://www.schrottunna.de</v>
-      </c>
-      <c r="B253" s="4" t="s">
         <v>219</v>
       </c>
     </row>

--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\IdeaProjects\webseit-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA79CF2-B7BB-4BF7-B2BA-ABED7736793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7547ABB4-083F-4296-ADB6-EB443792BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A0E7E13-4B51-4D68-A319-BB2E1A6F5F75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>auto-ankauf-warendorf.de</t>
   </si>
@@ -763,6 +763,366 @@
   </si>
   <si>
     <t>nordhausen-auto-ankauf.de</t>
+  </si>
+  <si>
+    <t>ahrensburg-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-bergischgladbach.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-dithmarschen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-dormagen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-elmshorn.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-geesthacht.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-glinde.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-göttingen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-grevenbroich.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-iserlohn.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-itzehoe.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-kassel.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-kreuztal.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-leverkusen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-lohmar.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-lübeck.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-lüdenscheid.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-marl.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-moers.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-neumünster.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-nordfriesland.de</t>
+  </si>
+  <si>
+    <t>olpe-autoentsorgung.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-ostholstein.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-pinneberg.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-plön.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-ratingen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-remscheid.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-rendsburg.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-segeberg.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-siegburg.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-solingen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-steinburg.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-stormarn.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-viersen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-wedel.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-witten.de</t>
+  </si>
+  <si>
+    <t>bergkamen-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>bonn-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>borken-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>bremen-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>erkrath-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>flensburg-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>gütersloh-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>hagen-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>hamburg-autoverschrottung.de</t>
+  </si>
+  <si>
+    <t>hamm-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>hannover-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>kiel-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>koblenz-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>krefeld-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>mönchengladbach-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>neuss-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>neuwied-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>norderstedt-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>oberhausen-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>oldenburg-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>osnabrück-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>rheinbach-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>schwelm-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>siegen-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-aachen.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-ahlen.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-alzey.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-bocholt.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-borken.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-bramsche.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-delmenhorst.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-dorsten.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-frechen.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-geestland.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-germersheim.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-gladbeck.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-heiligenhaus.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-herne.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-hildesheim.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-kaiserslautern.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-kamen.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-kleve.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-lahnstein.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-mayen.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-meerbusch.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-meppen.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-nettetal.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-paderborn.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-pirmasens.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-salzgitter.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-schifferstadt.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-schwerte.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-stade.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-wilhelmshaven.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-wittlich.de</t>
+  </si>
+  <si>
+    <t>autoverwerter-würzburg.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-baesweiler.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-bornheim.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-burgdorf.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-einbeck.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-erftstadt.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-eschborn.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-espelkamp.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-gifhorn.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-goch.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-hofgeismar.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-idstein.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-kelkheim.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-langenfeld.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-lemgo.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-lippstadt.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-mülheim.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-overath.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-raesfeld.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-salzkotten.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-salzwedel.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-uelzen.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-vreden.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-walsrode.de</t>
+  </si>
+  <si>
+    <t>autoverwertung-wetter.de</t>
+  </si>
+  <si>
+    <t>köln-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>stuttgart-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>velbert-autoverwertung.de</t>
+  </si>
+  <si>
+    <t>wuppertal-autoverwertung.de</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF5093-2B8D-4748-B826-5F7196BA71A3}">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,7 +3308,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" ref="A193:A243" si="5">"https://www." &amp; B193</f>
+        <f t="shared" ref="A193:A256" si="5">"https://www." &amp; B193</f>
         <v>https://www.autoankauf-offenburg.de</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -3403,6 +3763,1086 @@
       </c>
       <c r="B243" s="4" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.ahrensburg-autoverwertung.de</v>
+      </c>
+      <c r="B244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-bergischgladbach.de</v>
+      </c>
+      <c r="B245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-dithmarschen.de</v>
+      </c>
+      <c r="B246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-dormagen.de</v>
+      </c>
+      <c r="B247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-elmshorn.de</v>
+      </c>
+      <c r="B248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-geesthacht.de</v>
+      </c>
+      <c r="B249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-glinde.de</v>
+      </c>
+      <c r="B250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-göttingen.de</v>
+      </c>
+      <c r="B251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-grevenbroich.de</v>
+      </c>
+      <c r="B252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-iserlohn.de</v>
+      </c>
+      <c r="B253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-itzehoe.de</v>
+      </c>
+      <c r="B254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-kassel.de</v>
+      </c>
+      <c r="B255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="str">
+        <f t="shared" si="5"/>
+        <v>https://www.autoverwertung-kreuztal.de</v>
+      </c>
+      <c r="B256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="str">
+        <f t="shared" ref="A257:A320" si="6">"https://www." &amp; B257</f>
+        <v>https://www.autoverwertung-leverkusen.de</v>
+      </c>
+      <c r="B257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-lohmar.de</v>
+      </c>
+      <c r="B258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-lübeck.de</v>
+      </c>
+      <c r="B259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-lüdenscheid.de</v>
+      </c>
+      <c r="B260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-marl.de</v>
+      </c>
+      <c r="B261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-moers.de</v>
+      </c>
+      <c r="B262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-neumünster.de</v>
+      </c>
+      <c r="B263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-nordfriesland.de</v>
+      </c>
+      <c r="B264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.olpe-autoentsorgung.de</v>
+      </c>
+      <c r="B265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-ostholstein.de</v>
+      </c>
+      <c r="B266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-pinneberg.de</v>
+      </c>
+      <c r="B267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-plön.de</v>
+      </c>
+      <c r="B268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-ratingen.de</v>
+      </c>
+      <c r="B269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-remscheid.de</v>
+      </c>
+      <c r="B270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-rendsburg.de</v>
+      </c>
+      <c r="B271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-segeberg.de</v>
+      </c>
+      <c r="B272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-siegburg.de</v>
+      </c>
+      <c r="B273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-solingen.de</v>
+      </c>
+      <c r="B274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-steinburg.de</v>
+      </c>
+      <c r="B275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-stormarn.de</v>
+      </c>
+      <c r="B276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-viersen.de</v>
+      </c>
+      <c r="B277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-wedel.de</v>
+      </c>
+      <c r="B278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwertung-witten.de</v>
+      </c>
+      <c r="B279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.bergkamen-autoverwertung.de</v>
+      </c>
+      <c r="B280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.bonn-autoverwertung.de</v>
+      </c>
+      <c r="B281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.borken-autoverwertung.de</v>
+      </c>
+      <c r="B282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.bremen-autoverwertung.de</v>
+      </c>
+      <c r="B283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.erkrath-autoverwertung.de</v>
+      </c>
+      <c r="B284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.flensburg-autoverwertung.de</v>
+      </c>
+      <c r="B285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.gütersloh-autoverwertung.de</v>
+      </c>
+      <c r="B286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.hagen-autoverwertung.de</v>
+      </c>
+      <c r="B287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.hamburg-autoverschrottung.de</v>
+      </c>
+      <c r="B288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.hamm-autoverwertung.de</v>
+      </c>
+      <c r="B289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.hannover-autoverwertung.de</v>
+      </c>
+      <c r="B290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.kiel-autoverwertung.de</v>
+      </c>
+      <c r="B291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.koblenz-autoverwertung.de</v>
+      </c>
+      <c r="B292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.krefeld-autoverwertung.de</v>
+      </c>
+      <c r="B293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.mönchengladbach-autoverwertung.de</v>
+      </c>
+      <c r="B294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.neuss-autoverwertung.de</v>
+      </c>
+      <c r="B295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.neuwied-autoverwertung.de</v>
+      </c>
+      <c r="B296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.norderstedt-autoverwertung.de</v>
+      </c>
+      <c r="B297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.oberhausen-autoverwertung.de</v>
+      </c>
+      <c r="B298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.oldenburg-autoverwertung.de</v>
+      </c>
+      <c r="B299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.osnabrück-autoverwertung.de</v>
+      </c>
+      <c r="B300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.rheinbach-autoverwertung.de</v>
+      </c>
+      <c r="B301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.schwelm-autoverwertung.de</v>
+      </c>
+      <c r="B302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.siegen-autoverwertung.de</v>
+      </c>
+      <c r="B303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-aachen.de</v>
+      </c>
+      <c r="B304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-ahlen.de</v>
+      </c>
+      <c r="B305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-alzey.de</v>
+      </c>
+      <c r="B306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-bocholt.de</v>
+      </c>
+      <c r="B307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-borken.de</v>
+      </c>
+      <c r="B308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-bramsche.de</v>
+      </c>
+      <c r="B309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-delmenhorst.de</v>
+      </c>
+      <c r="B310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-dorsten.de</v>
+      </c>
+      <c r="B311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-frechen.de</v>
+      </c>
+      <c r="B312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-geestland.de</v>
+      </c>
+      <c r="B313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-germersheim.de</v>
+      </c>
+      <c r="B314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-gladbeck.de</v>
+      </c>
+      <c r="B315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-heiligenhaus.de</v>
+      </c>
+      <c r="B316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-herne.de</v>
+      </c>
+      <c r="B317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-hildesheim.de</v>
+      </c>
+      <c r="B318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-kaiserslautern.de</v>
+      </c>
+      <c r="B319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="str">
+        <f t="shared" si="6"/>
+        <v>https://www.autoverwerter-kamen.de</v>
+      </c>
+      <c r="B320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="str">
+        <f t="shared" ref="A321:A363" si="7">"https://www." &amp; B321</f>
+        <v>https://www.autoverwerter-kleve.de</v>
+      </c>
+      <c r="B321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-lahnstein.de</v>
+      </c>
+      <c r="B322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-mayen.de</v>
+      </c>
+      <c r="B323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-meerbusch.de</v>
+      </c>
+      <c r="B324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-meppen.de</v>
+      </c>
+      <c r="B325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-nettetal.de</v>
+      </c>
+      <c r="B326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-paderborn.de</v>
+      </c>
+      <c r="B327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-pirmasens.de</v>
+      </c>
+      <c r="B328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-salzgitter.de</v>
+      </c>
+      <c r="B329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-schifferstadt.de</v>
+      </c>
+      <c r="B330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-schwerte.de</v>
+      </c>
+      <c r="B331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-stade.de</v>
+      </c>
+      <c r="B332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-wilhelmshaven.de</v>
+      </c>
+      <c r="B333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-wittlich.de</v>
+      </c>
+      <c r="B334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwerter-würzburg.de</v>
+      </c>
+      <c r="B335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-baesweiler.de</v>
+      </c>
+      <c r="B336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-bornheim.de</v>
+      </c>
+      <c r="B337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-burgdorf.de</v>
+      </c>
+      <c r="B338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-einbeck.de</v>
+      </c>
+      <c r="B339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-erftstadt.de</v>
+      </c>
+      <c r="B340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-eschborn.de</v>
+      </c>
+      <c r="B341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-espelkamp.de</v>
+      </c>
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-gifhorn.de</v>
+      </c>
+      <c r="B343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-goch.de</v>
+      </c>
+      <c r="B344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-hofgeismar.de</v>
+      </c>
+      <c r="B345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-idstein.de</v>
+      </c>
+      <c r="B346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-kelkheim.de</v>
+      </c>
+      <c r="B347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-langenfeld.de</v>
+      </c>
+      <c r="B348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-lemgo.de</v>
+      </c>
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-lippstadt.de</v>
+      </c>
+      <c r="B350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-mülheim.de</v>
+      </c>
+      <c r="B351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-overath.de</v>
+      </c>
+      <c r="B352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-raesfeld.de</v>
+      </c>
+      <c r="B353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-salzkotten.de</v>
+      </c>
+      <c r="B354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-salzwedel.de</v>
+      </c>
+      <c r="B355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-uelzen.de</v>
+      </c>
+      <c r="B356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-vreden.de</v>
+      </c>
+      <c r="B357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-walsrode.de</v>
+      </c>
+      <c r="B358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.autoverwertung-wetter.de</v>
+      </c>
+      <c r="B359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.köln-autoverwertung.de</v>
+      </c>
+      <c r="B360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.stuttgart-autoverwertung.de</v>
+      </c>
+      <c r="B361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.velbert-autoverwertung.de</v>
+      </c>
+      <c r="B362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="str">
+        <f t="shared" si="7"/>
+        <v>https://www.wuppertal-autoverwertung.de</v>
+      </c>
+      <c r="B363" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
